--- a/Data/2022-08-08_Behavior_Assay_pvalues.xlsx
+++ b/Data/2022-08-08_Behavior_Assay_pvalues.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,27 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -446,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F172"/>
+  <dimension ref="A1:E163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,22 +434,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Moving [s]|Accomodation</t>
+        </is>
+      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Moving [s]|Accomodation</t>
+          <t>Velocity [mm/s]|Light</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Velocity [mm/s]|Light</t>
+          <t>Velocity [mm/s]|Dark</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Velocity [mm/s]|Dark</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Velocity|Ratio Light/Dark</t>
         </is>
@@ -479,102 +458,90 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>(-)-Anisomycin_2F06</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>1</v>
+          <t>(+)-Mefloquine_2C11</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7360429527125133</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6674898195164503</v>
+        <v>0.4793736799483984</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1358286050707642</v>
+        <v>0.8809755925114653</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6967970185092274</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.02737565451255046</v>
+        <v>0.5283308247368013</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>(RS)-PPCC_2E05</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>1</v>
+          <t>(-)-Anisomycin_2F06</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6674898195164503</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05368213533026459</v>
+        <v>0.1358286050707642</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2635644369390499</v>
+        <v>0.6967970185092274</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2143932255656579</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.568560827007455</v>
+        <v>0.02737565451255046</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ABT 239_1F10</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>1</v>
+          <t>(RS)-PPCC_2E05</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.05368213533026459</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05231592667370894</v>
+        <v>0.2635644369390499</v>
       </c>
       <c r="D4" t="n">
-        <v>0.008013401861836703</v>
+        <v>0.2143932255656579</v>
       </c>
       <c r="E4" t="n">
-        <v>0.006604090866153538</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.1059276988460962</v>
+        <v>0.568560827007455</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AZ3451_2E06</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>1</v>
+          <t>ABT 239_1F10</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.05231592667370894</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7360429527125133</v>
+        <v>0.008013401861836703</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2907470178973746</v>
+        <v>0.006604090866153538</v>
       </c>
       <c r="E5" t="n">
-        <v>0.976103748482265</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.2635644369390499</v>
+        <v>0.1059276988460962</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Abacavir_2H07</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>1</v>
+          <t>AZ3451_2E06</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7360429527125133</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4523006345593503</v>
+        <v>0.2907470178973746</v>
       </c>
       <c r="D6" t="n">
         <v>0.976103748482265</v>
@@ -582,290 +549,252 @@
       <c r="E6" t="n">
         <v>0.2635644369390499</v>
       </c>
-      <c r="F6" t="n">
-        <v>0.7874627279661603</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Abemaciclib_1G11</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>1</v>
+          <t>Abacavir_2H07</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4523006345593503</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8583454039016009</v>
+        <v>0.976103748482265</v>
       </c>
       <c r="D7" t="n">
-        <v>0.72181655516881</v>
+        <v>0.2635644369390499</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4688039818474602</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.8616665138404269</v>
+        <v>0.7874627279661603</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Almitrine_1G04</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>1</v>
+          <t>Abemaciclib_1G11</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8583454039016009</v>
       </c>
       <c r="C8" t="n">
-        <v>3.864189006425355e-05</v>
+        <v>0.72181655516881</v>
       </c>
       <c r="D8" t="n">
-        <v>4.202068059493571e-06</v>
+        <v>0.4688039818474602</v>
       </c>
       <c r="E8" t="n">
-        <v>2.53857682534057e-05</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6.882946959622974e-05</v>
+        <v>0.8616665138404269</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Amiodarone_1F03</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>1</v>
+          <t>Almitrine_1G04</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3.864189006425355e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1998835525662286</v>
+        <v>4.202068059493571e-06</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001773477478006288</v>
+        <v>2.53857682534057e-05</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02231068793535783</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.01030935197276377</v>
+        <v>6.882946959622974e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Amodiaquine_1D03</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>1</v>
+          <t>Amiodarone_1F03</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1998835525662286</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01501486635242819</v>
+        <v>0.001773477478006288</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5239644026306487</v>
+        <v>0.02231068793535783</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2179455072952519</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.4360641754459801</v>
+        <v>0.01030935197276377</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Amuvatinib_1E04</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>1</v>
+          <t>Amodiaquine_1D03</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.01501486635242819</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02557442557442557</v>
+        <v>0.5239644026306487</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2076174111548459</v>
+        <v>0.2179455072952519</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7756243756243756</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.1134865134865135</v>
+        <v>0.4360641754459801</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Anagliptin_2E10</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>1</v>
+          <t>Amuvatinib_1E04</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.02557442557442557</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01978215943911123</v>
+        <v>0.2076174111548459</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2366986566676402</v>
+        <v>0.7756243756243756</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02253860096811164</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.4716935276020146</v>
+        <v>0.1134865134865135</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Anidulafungin_2B03</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>1</v>
+          <t>Anagliptin_2E10</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.01978215943911123</v>
       </c>
       <c r="C13" t="n">
-        <v>0.005134239926438707</v>
+        <v>0.2366986566676402</v>
       </c>
       <c r="D13" t="n">
-        <v>0.04482297738456037</v>
+        <v>0.02253860096811164</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02297031426120133</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.09260188369085934</v>
+        <v>0.4716935276020146</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Apilimod_1B03</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>0.5</v>
+          <t>Anidulafungin_2B03</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.005134239926438707</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2568468115893779</v>
+        <v>0.04482297738456037</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01833642712834768</v>
+        <v>0.02297031426120133</v>
       </c>
       <c r="E14" t="n">
-        <v>0.03242819907243114</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.01590545378403771</v>
+        <v>0.09260188369085934</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Apixaban_2H09</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>1</v>
+          <t>Apilimod_1B03</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.2568468115893779</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1056384276198518</v>
+        <v>0.01833642712834768</v>
       </c>
       <c r="D15" t="n">
-        <v>0.741723331035486</v>
+        <v>0.03242819907243114</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4895774272540997</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.6100933959326744</v>
+        <v>0.01590545378403771</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Apremilast_2F05</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>1</v>
+          <t>Apixaban_2H09</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.1056384276198518</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2693006711568013</v>
+        <v>0.741723331035486</v>
       </c>
       <c r="D16" t="n">
-        <v>0.652906776745786</v>
+        <v>0.4895774272540997</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.652906776745786</v>
+        <v>0.6100933959326744</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Aprepitant_2F03</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
+          <t>Apremilast_2F05</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.2693006711568013</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.652906776745786</v>
+      </c>
+      <c r="D17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" t="n">
-        <v>0.4614571019452185</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.2381412727354307</v>
-      </c>
       <c r="E17" t="n">
-        <v>0.928439054701001</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.1719279210193196</v>
+        <v>0.652906776745786</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
+          <t>Aprepitant_2F03</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.4614571019452185</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.2381412727354307</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.928439054701001</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.1719279210193196</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
           <t>Astemizole_1D04</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2.660354137044241e-05</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.4314748224780431</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2.529623551949019e-08</v>
-      </c>
-      <c r="F18" t="n">
-        <v>3.592830166055743e-08</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="n">
-        <v>0.5</v>
+      <c r="B19" t="n">
+        <v>4.354355970369297e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9280971578963219</v>
+        <v>0.4099463291987281</v>
       </c>
       <c r="D19" t="n">
-        <v>0.003196917894919829</v>
+        <v>2.356964272047478e-07</v>
       </c>
       <c r="E19" t="n">
-        <v>0.06607896799618297</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.5421666453913343</v>
+        <v>9.423506466297356e-08</v>
       </c>
     </row>
     <row r="20">
@@ -874,19 +803,16 @@
           <t>Atazanavir_1B10</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
-        <v>1</v>
+      <c r="B20" t="n">
+        <v>0.5492433274240123</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5492433274240123</v>
+        <v>0.2572389851810263</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2572389851810263</v>
+        <v>0.6763863260009093</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6763863260009093</v>
-      </c>
-      <c r="F20" t="n">
         <v>0.1210598199790996</v>
       </c>
     </row>
@@ -896,19 +822,16 @@
           <t>Baricitinib_2C09</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n">
-        <v>1</v>
+      <c r="B21" t="n">
+        <v>0.18217212408731</v>
       </c>
       <c r="C21" t="n">
-        <v>0.18217212408731</v>
+        <v>0.814457524575031</v>
       </c>
       <c r="D21" t="n">
-        <v>0.814457524575031</v>
+        <v>0.5954449847278814</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5954449847278814</v>
-      </c>
-      <c r="F21" t="n">
         <v>0.6135155783392277</v>
       </c>
     </row>
@@ -918,19 +841,16 @@
           <t>Bemcentinib_1A04</t>
         </is>
       </c>
-      <c r="B22" s="1" t="n">
-        <v>1</v>
+      <c r="B22" t="n">
+        <v>0.5506382605323642</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5506382605323642</v>
+        <v>0.1210598199790996</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1210598199790996</v>
+        <v>0.5915050369949164</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5915050369949164</v>
-      </c>
-      <c r="F22" t="n">
         <v>0.01449454855107082</v>
       </c>
     </row>
@@ -940,19 +860,16 @@
           <t>Benztropine_1G02</t>
         </is>
       </c>
-      <c r="B23" s="1" t="n">
-        <v>1</v>
+      <c r="B23" t="n">
+        <v>0.1487329300586518</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1487329300586518</v>
+        <v>0.8504180630785465</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8504180630785465</v>
+        <v>0.2115838947977858</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2115838947977858</v>
-      </c>
-      <c r="F23" t="n">
         <v>0.5877391489586028</v>
       </c>
     </row>
@@ -962,19 +879,16 @@
           <t>Berbamine_2A09</t>
         </is>
       </c>
-      <c r="B24" s="1" t="n">
-        <v>1</v>
+      <c r="B24" t="n">
+        <v>0.781251455873101</v>
       </c>
       <c r="C24" t="n">
-        <v>0.781251455873101</v>
+        <v>0.1719279210193196</v>
       </c>
       <c r="D24" t="n">
         <v>0.1719279210193196</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1719279210193196</v>
-      </c>
-      <c r="F24" t="n">
         <v>0.09260188369085934</v>
       </c>
     </row>
@@ -984,19 +898,16 @@
           <t>Boceprevir_2G09</t>
         </is>
       </c>
-      <c r="B25" s="1" t="n">
-        <v>1</v>
+      <c r="B25" t="n">
+        <v>0.8765411301968662</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8765411301968662</v>
+        <v>0.9231560363772932</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9231560363772932</v>
+        <v>0.4034380517489498</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4034380517489498</v>
-      </c>
-      <c r="F25" t="n">
         <v>0.9144579851508905</v>
       </c>
     </row>
@@ -1006,19 +917,16 @@
           <t>Bortezomib_2G06</t>
         </is>
       </c>
-      <c r="B26" s="1" t="n">
-        <v>1</v>
+      <c r="B26" t="n">
+        <v>0.9267490123683101</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9267490123683101</v>
+        <v>0.2907470178973746</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2907470178973746</v>
+        <v>0.1719279210193196</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1719279210193196</v>
-      </c>
-      <c r="F26" t="n">
         <v>0.3502789368989395</v>
       </c>
     </row>
@@ -1028,19 +936,16 @@
           <t>Brequinar_2H03</t>
         </is>
       </c>
-      <c r="B27" s="1" t="n">
-        <v>1</v>
+      <c r="B27" t="n">
+        <v>0.7418788559147742</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7418788559147742</v>
+        <v>0.04949812003837783</v>
       </c>
       <c r="D27" t="n">
-        <v>0.04949812003837783</v>
+        <v>0.03697985447049208</v>
       </c>
       <c r="E27" t="n">
-        <v>0.03697985447049208</v>
-      </c>
-      <c r="F27" t="n">
         <v>0.06912316778747638</v>
       </c>
     </row>
@@ -1050,19 +955,16 @@
           <t>Cabozantinib_2G04</t>
         </is>
       </c>
-      <c r="B28" s="1" t="n">
-        <v>1</v>
+      <c r="B28" t="n">
+        <v>2.681102300277411e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>2.681102300277411e-05</v>
+        <v>0.0001713844467453577</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0001713844467453577</v>
+        <v>1.962509529265145e-05</v>
       </c>
       <c r="E28" t="n">
-        <v>1.962509529265145e-05</v>
-      </c>
-      <c r="F28" t="n">
         <v>0.4994314931941632</v>
       </c>
     </row>
@@ -1072,19 +974,16 @@
           <t>Camostat_1E10</t>
         </is>
       </c>
-      <c r="B29" s="1" t="n">
-        <v>1</v>
+      <c r="B29" t="n">
+        <v>0.04955044955044956</v>
       </c>
       <c r="C29" t="n">
-        <v>0.04955044955044956</v>
+        <v>0.1135789078463774</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1135789078463774</v>
+        <v>0.606993006993007</v>
       </c>
       <c r="E29" t="n">
-        <v>0.606993006993007</v>
-      </c>
-      <c r="F29" t="n">
         <v>0.03596403596403597</v>
       </c>
     </row>
@@ -1094,19 +993,16 @@
           <t>Captopril_1F07</t>
         </is>
       </c>
-      <c r="B30" s="1" t="n">
-        <v>1</v>
+      <c r="B30" t="n">
+        <v>0.2061766403964775</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2061766403964775</v>
+        <v>0.1976581872234046</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1976581872234046</v>
+        <v>0.6964341294776076</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6964341294776076</v>
-      </c>
-      <c r="F30" t="n">
         <v>0.2376703489746968</v>
       </c>
     </row>
@@ -1116,19 +1012,16 @@
           <t>Celecoxib_2G03</t>
         </is>
       </c>
-      <c r="B31" s="1" t="n">
-        <v>1</v>
+      <c r="B31" t="n">
+        <v>0.7362088086200227</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7362088086200227</v>
+        <v>0.09817524359008377</v>
       </c>
       <c r="D31" t="n">
-        <v>0.09817524359008377</v>
+        <v>0.2907470178973746</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2907470178973746</v>
-      </c>
-      <c r="F31" t="n">
         <v>0.2143932255656579</v>
       </c>
     </row>
@@ -1138,19 +1031,16 @@
           <t>Chlormidazole_2C05</t>
         </is>
       </c>
-      <c r="B32" s="1" t="n">
-        <v>1</v>
+      <c r="B32" t="n">
+        <v>0.8539252702830225</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8539252702830225</v>
+        <v>0.4435977426358269</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4435977426358269</v>
+        <v>0.4523006345593503</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4523006345593503</v>
-      </c>
-      <c r="F32" t="n">
         <v>0.4895774272540997</v>
       </c>
     </row>
@@ -1160,19 +1050,16 @@
           <t>Chlorothiazide_2H08</t>
         </is>
       </c>
-      <c r="B33" s="1" t="n">
-        <v>1</v>
+      <c r="B33" t="n">
+        <v>0.7874627279661603</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7874627279661603</v>
+        <v>0.3826038008296723</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3826038008296723</v>
+        <v>0.976103748482265</v>
       </c>
       <c r="E33" t="n">
-        <v>0.976103748482265</v>
-      </c>
-      <c r="F33" t="n">
         <v>0.568560827007455</v>
       </c>
     </row>
@@ -1182,19 +1069,16 @@
           <t>Chlorpromazine_1B02</t>
         </is>
       </c>
-      <c r="B34" s="1" t="n">
-        <v>1</v>
+      <c r="B34" t="n">
+        <v>0.2787770935962406</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2787770935962406</v>
+        <v>0.6333423006990662</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6333423006990662</v>
+        <v>0.9050717819787818</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9050717819787818</v>
-      </c>
-      <c r="F34" t="n">
         <v>0.8114825221108789</v>
       </c>
     </row>
@@ -1204,19 +1088,16 @@
           <t>Ciclesonide_1A08</t>
         </is>
       </c>
-      <c r="B35" s="1" t="n">
-        <v>1</v>
+      <c r="B35" t="n">
+        <v>0.5109598545172472</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5109598545172472</v>
+        <v>0.2104977000553373</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2104977000553373</v>
+        <v>0.2831308706623467</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2831308706623467</v>
-      </c>
-      <c r="F35" t="n">
         <v>0.1074046363302537</v>
       </c>
     </row>
@@ -1226,19 +1107,16 @@
           <t>Clemastine_2D07</t>
         </is>
       </c>
-      <c r="B36" s="1" t="n">
-        <v>1</v>
+      <c r="B36" t="n">
+        <v>0.6677624571700782</v>
       </c>
       <c r="C36" t="n">
-        <v>0.6677624571700782</v>
+        <v>0.928439054701001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.928439054701001</v>
+        <v>0.6100933959326744</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6100933959326744</v>
-      </c>
-      <c r="F36" t="n">
         <v>0.8809755925114653</v>
       </c>
     </row>
@@ -1248,19 +1126,16 @@
           <t>Clomipramine_1E08</t>
         </is>
       </c>
-      <c r="B37" s="1" t="n">
-        <v>1</v>
+      <c r="B37" t="n">
+        <v>0.4559440559440558</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4559440559440558</v>
+        <v>0.01057158882833039</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01057158882833039</v>
+        <v>0.04955044955044956</v>
       </c>
       <c r="E37" t="n">
-        <v>0.04955044955044956</v>
-      </c>
-      <c r="F37" t="n">
         <v>0.004795204795204795</v>
       </c>
     </row>
@@ -1270,19 +1145,16 @@
           <t>Cloperastine_2D06</t>
         </is>
       </c>
-      <c r="B38" s="1" t="n">
-        <v>1</v>
+      <c r="B38" t="n">
+        <v>0.07505272015740079</v>
       </c>
       <c r="C38" t="n">
-        <v>0.07505272015740079</v>
+        <v>0.2205709979552172</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2205709979552172</v>
+        <v>0.2635644369390499</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2635644369390499</v>
-      </c>
-      <c r="F38" t="n">
         <v>0.5283308247368013</v>
       </c>
     </row>
@@ -1292,7 +1164,7 @@
           <t>Control</t>
         </is>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B39" t="n">
         <v>1</v>
       </c>
       <c r="C39" t="n">
@@ -1304,9 +1176,6 @@
       <c r="E39" t="n">
         <v>1</v>
       </c>
-      <c r="F39" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1314,19 +1183,16 @@
           <t>Cycloheximide_2D11</t>
         </is>
       </c>
-      <c r="B40" s="1" t="n">
-        <v>1</v>
+      <c r="B40" t="n">
+        <v>0.1183140721655378</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1183140721655378</v>
+        <v>0.976103748482265</v>
       </c>
       <c r="D40" t="n">
-        <v>0.976103748482265</v>
+        <v>0.741723331035486</v>
       </c>
       <c r="E40" t="n">
-        <v>0.741723331035486</v>
-      </c>
-      <c r="F40" t="n">
         <v>0.6967970185092274</v>
       </c>
     </row>
@@ -1336,19 +1202,16 @@
           <t>Cyclosporine_1F04</t>
         </is>
       </c>
-      <c r="B41" s="1" t="n">
-        <v>1</v>
+      <c r="B41" t="n">
+        <v>0.3093950134078763</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3093950134078763</v>
+        <v>0.1516933101703259</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1516933101703259</v>
+        <v>0.7958795465215174</v>
       </c>
       <c r="E41" t="n">
-        <v>0.7958795465215174</v>
-      </c>
-      <c r="F41" t="n">
         <v>0.3652578484486141</v>
       </c>
     </row>
@@ -1358,19 +1221,16 @@
           <t>Dabrafenib_2B08</t>
         </is>
       </c>
-      <c r="B42" s="1" t="n">
-        <v>1</v>
+      <c r="B42" t="n">
+        <v>0.08067532616967289</v>
       </c>
       <c r="C42" t="n">
-        <v>0.08067532616967289</v>
+        <v>0.1923556469255756</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1923556469255756</v>
+        <v>0.5283308247368013</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5283308247368013</v>
-      </c>
-      <c r="F42" t="n">
         <v>0.2907470178973746</v>
       </c>
     </row>
@@ -1380,19 +1240,16 @@
           <t>Daclatasvir_1C04</t>
         </is>
       </c>
-      <c r="B43" s="1" t="n">
-        <v>1</v>
+      <c r="B43" t="n">
+        <v>0.3502344895432362</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3502344895432362</v>
+        <v>0.1034150100713144</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1034150100713144</v>
+        <v>0.3146883473704422</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3146883473704422</v>
-      </c>
-      <c r="F43" t="n">
         <v>0.1370390825091377</v>
       </c>
     </row>
@@ -1402,19 +1259,16 @@
           <t>Danusertib_2F04</t>
         </is>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B44" t="n">
+        <v>0.6023878202011386</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.568560827007455</v>
+      </c>
+      <c r="D44" t="n">
         <v>1</v>
       </c>
-      <c r="C44" t="n">
-        <v>0.6023878202011386</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.568560827007455</v>
-      </c>
       <c r="E44" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" t="n">
         <v>0.6100933959326744</v>
       </c>
     </row>
@@ -1424,19 +1278,16 @@
           <t>Dapivirine_2B09</t>
         </is>
       </c>
-      <c r="B45" s="1" t="n">
-        <v>1</v>
+      <c r="B45" t="n">
+        <v>0.001793970502517159</v>
       </c>
       <c r="C45" t="n">
-        <v>0.001793970502517159</v>
+        <v>0.7197591747329263</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7197591747329263</v>
+        <v>0.07624501849835004</v>
       </c>
       <c r="E45" t="n">
-        <v>0.07624501849835004</v>
-      </c>
-      <c r="F45" t="n">
         <v>0.9739962554607864</v>
       </c>
     </row>
@@ -1446,19 +1297,16 @@
           <t>Darifenacin_2F08</t>
         </is>
       </c>
-      <c r="B46" s="1" t="n">
-        <v>1</v>
+      <c r="B46" t="n">
+        <v>0.2089504935840925</v>
       </c>
       <c r="C46" t="n">
-        <v>0.2089504935840925</v>
+        <v>0.5283308247368013</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5283308247368013</v>
+        <v>0.833960822384567</v>
       </c>
       <c r="E46" t="n">
-        <v>0.833960822384567</v>
-      </c>
-      <c r="F46" t="n">
         <v>0.4523006345593503</v>
       </c>
     </row>
@@ -1468,19 +1316,16 @@
           <t>Darunavir_2H02</t>
         </is>
       </c>
-      <c r="B47" s="1" t="n">
-        <v>1</v>
+      <c r="B47" t="n">
+        <v>0.90250215847754</v>
       </c>
       <c r="C47" t="n">
-        <v>0.90250215847754</v>
+        <v>0.1923556469255756</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1923556469255756</v>
+        <v>0.1200400831575956</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1200400831575956</v>
-      </c>
-      <c r="F47" t="n">
         <v>0.4523006345593503</v>
       </c>
     </row>
@@ -1490,19 +1335,16 @@
           <t>Delanzomib_2H04</t>
         </is>
       </c>
-      <c r="B48" s="1" t="n">
-        <v>1</v>
+      <c r="B48" t="n">
+        <v>0.04482297738456037</v>
       </c>
       <c r="C48" t="n">
+        <v>0.1923556469255756</v>
+      </c>
+      <c r="D48" t="n">
         <v>0.04482297738456037</v>
       </c>
-      <c r="D48" t="n">
-        <v>0.1923556469255756</v>
-      </c>
       <c r="E48" t="n">
-        <v>0.04482297738456037</v>
-      </c>
-      <c r="F48" t="n">
         <v>0.568560827007455</v>
       </c>
     </row>
@@ -1512,19 +1354,16 @@
           <t>Delavirdine_2H05</t>
         </is>
       </c>
-      <c r="B49" s="1" t="n">
-        <v>1</v>
+      <c r="B49" t="n">
+        <v>0.09189398004976111</v>
       </c>
       <c r="C49" t="n">
-        <v>0.09189398004976111</v>
+        <v>0.976103748482265</v>
       </c>
       <c r="D49" t="n">
-        <v>0.976103748482265</v>
+        <v>0.06074474724360308</v>
       </c>
       <c r="E49" t="n">
-        <v>0.06074474724360308</v>
-      </c>
-      <c r="F49" t="n">
         <v>0.4166500106734323</v>
       </c>
     </row>
@@ -1534,19 +1373,16 @@
           <t>Desmethyl ferroquine_2E11</t>
         </is>
       </c>
-      <c r="B50" s="1" t="n">
-        <v>1</v>
+      <c r="B50" t="n">
+        <v>0.3741572555061313</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3741572555061313</v>
+        <v>0.4895774272540997</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4895774272540997</v>
+        <v>0.2635644369390499</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2635644369390499</v>
-      </c>
-      <c r="F50" t="n">
         <v>0.652906776745786</v>
       </c>
     </row>
@@ -1556,19 +1392,16 @@
           <t>Digitoxin_2C04</t>
         </is>
       </c>
-      <c r="B51" s="1" t="n">
-        <v>1</v>
+      <c r="B51" t="n">
+        <v>0.002832591585474688</v>
       </c>
       <c r="C51" t="n">
-        <v>0.002832591585474688</v>
+        <v>0.002535648081549435</v>
       </c>
       <c r="D51" t="n">
-        <v>0.002535648081549435</v>
+        <v>0.0001101806037664278</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0001101806037664278</v>
-      </c>
-      <c r="F51" t="n">
         <v>0.299785340903889</v>
       </c>
     </row>
@@ -1578,19 +1411,16 @@
           <t>Digoxin_1D02</t>
         </is>
       </c>
-      <c r="B52" s="1" t="n">
-        <v>1</v>
+      <c r="B52" t="n">
+        <v>0.3325944167708704</v>
       </c>
       <c r="C52" t="n">
-        <v>0.3325944167708704</v>
+        <v>0.9435528345955494</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9435528345955494</v>
+        <v>0.921037270243004</v>
       </c>
       <c r="E52" t="n">
-        <v>0.921037270243004</v>
-      </c>
-      <c r="F52" t="n">
         <v>0.7446485590752736</v>
       </c>
     </row>
@@ -1600,19 +1430,16 @@
           <t>Doravirine_2D10</t>
         </is>
       </c>
-      <c r="B53" s="1" t="n">
-        <v>1</v>
+      <c r="B53" t="n">
+        <v>0.2314115479184654</v>
       </c>
       <c r="C53" t="n">
-        <v>0.2314115479184654</v>
+        <v>0.6967970185092274</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6967970185092274</v>
+        <v>0.928439054701001</v>
       </c>
       <c r="E53" t="n">
-        <v>0.928439054701001</v>
-      </c>
-      <c r="F53" t="n">
         <v>0.833960822384567</v>
       </c>
     </row>
@@ -1622,19 +1449,16 @@
           <t>Doxorubicin_2A05</t>
         </is>
       </c>
-      <c r="B54" s="1" t="n">
-        <v>1</v>
+      <c r="B54" t="n">
+        <v>0.2994445240926058</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2994445240926058</v>
+        <v>0.9513641829362991</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9513641829362991</v>
+        <v>0.1535067357934728</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1535067357934728</v>
-      </c>
-      <c r="F54" t="n">
         <v>0.8932552905563226</v>
       </c>
     </row>
@@ -1644,19 +1468,16 @@
           <t>Doxycycline_1E05</t>
         </is>
       </c>
-      <c r="B55" s="1" t="n">
-        <v>1</v>
+      <c r="B55" t="n">
+        <v>0.9546453546453546</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9546453546453546</v>
+        <v>0.4420221899269482</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4420221899269482</v>
+        <v>0.7756243756243756</v>
       </c>
       <c r="E55" t="n">
-        <v>0.7756243756243756</v>
-      </c>
-      <c r="F55" t="n">
         <v>0.3276723276723276</v>
       </c>
     </row>
@@ -1666,19 +1487,16 @@
           <t>Drotaverine_1B07</t>
         </is>
       </c>
-      <c r="B56" s="1" t="n">
-        <v>1</v>
+      <c r="B56" t="n">
+        <v>0.856286128820941</v>
       </c>
       <c r="C56" t="n">
-        <v>0.856286128820941</v>
+        <v>0.8580276569875211</v>
       </c>
       <c r="D56" t="n">
-        <v>0.8580276569875211</v>
+        <v>0.5509849875850934</v>
       </c>
       <c r="E56" t="n">
-        <v>0.5509849875850934</v>
-      </c>
-      <c r="F56" t="n">
         <v>0.5118799273370487</v>
       </c>
     </row>
@@ -1688,19 +1506,16 @@
           <t>Dutacatib_2C07</t>
         </is>
       </c>
-      <c r="B57" s="1" t="n">
-        <v>1</v>
+      <c r="B57" t="n">
+        <v>0.125704156818013</v>
       </c>
       <c r="C57" t="n">
-        <v>0.125704156818013</v>
+        <v>0.7351530767075722</v>
       </c>
       <c r="D57" t="n">
-        <v>0.7351530767075722</v>
+        <v>0.2635644369390499</v>
       </c>
       <c r="E57" t="n">
-        <v>0.2635644369390499</v>
-      </c>
-      <c r="F57" t="n">
         <v>0.928439054701001</v>
       </c>
     </row>
@@ -1710,19 +1525,16 @@
           <t>E 52862_2D09</t>
         </is>
       </c>
-      <c r="B58" s="1" t="n">
-        <v>1</v>
+      <c r="B58" t="n">
+        <v>0.8782197335832028</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8782197335832028</v>
+        <v>0.3826038008296723</v>
       </c>
       <c r="D58" t="n">
-        <v>0.3826038008296723</v>
+        <v>0.8809755925114653</v>
       </c>
       <c r="E58" t="n">
-        <v>0.8809755925114653</v>
-      </c>
-      <c r="F58" t="n">
         <v>0.3826038008296723</v>
       </c>
     </row>
@@ -1732,19 +1544,16 @@
           <t>Emetine_1E06</t>
         </is>
       </c>
-      <c r="B59" s="1" t="n">
-        <v>1</v>
+      <c r="B59" t="n">
+        <v>0.01758241758241758</v>
       </c>
       <c r="C59" t="n">
-        <v>0.01758241758241758</v>
+        <v>0.1531195258848909</v>
       </c>
       <c r="D59" t="n">
-        <v>0.1531195258848909</v>
+        <v>0.2721278721278721</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2721278721278721</v>
-      </c>
-      <c r="F59" t="n">
         <v>0.08791208791208792</v>
       </c>
     </row>
@@ -1754,19 +1563,16 @@
           <t>Entacapone_2B05</t>
         </is>
       </c>
-      <c r="B60" s="1" t="n">
-        <v>1</v>
+      <c r="B60" t="n">
+        <v>0.3118755991640484</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3118755991640484</v>
+        <v>0.3502789368989395</v>
       </c>
       <c r="D60" t="n">
-        <v>0.3502789368989395</v>
+        <v>0.833960822384567</v>
       </c>
       <c r="E60" t="n">
-        <v>0.833960822384567</v>
-      </c>
-      <c r="F60" t="n">
         <v>0.2381412727354307</v>
       </c>
     </row>
@@ -1776,19 +1582,16 @@
           <t>Eszopiclone_2C10</t>
         </is>
       </c>
-      <c r="B61" s="1" t="n">
-        <v>1</v>
+      <c r="B61" t="n">
+        <v>0.7132435844105915</v>
       </c>
       <c r="C61" t="n">
-        <v>0.7132435844105915</v>
+        <v>0.8060823033055363</v>
       </c>
       <c r="D61" t="n">
-        <v>0.8060823033055363</v>
+        <v>0.4166500106734323</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4166500106734323</v>
-      </c>
-      <c r="F61" t="n">
         <v>0.4895774272540997</v>
       </c>
     </row>
@@ -1798,19 +1601,16 @@
           <t>Ethaverine_1A10</t>
         </is>
       </c>
-      <c r="B62" s="1" t="n">
-        <v>1</v>
+      <c r="B62" t="n">
+        <v>0.7199308706847987</v>
       </c>
       <c r="C62" t="n">
-        <v>0.7199308706847987</v>
+        <v>0.8114825221108789</v>
       </c>
       <c r="D62" t="n">
-        <v>0.8114825221108789</v>
+        <v>0.03688842570704982</v>
       </c>
       <c r="E62" t="n">
-        <v>0.03688842570704982</v>
-      </c>
-      <c r="F62" t="n">
         <v>0.5509849875850934</v>
       </c>
     </row>
@@ -1820,19 +1620,16 @@
           <t>Favipiravir_1D10</t>
         </is>
       </c>
-      <c r="B63" s="1" t="n">
-        <v>1</v>
+      <c r="B63" t="n">
+        <v>0.3367988913212902</v>
       </c>
       <c r="C63" t="n">
-        <v>0.3367988913212902</v>
+        <v>0.6209730503275505</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6209730503275505</v>
+        <v>0.318982614736427</v>
       </c>
       <c r="E63" t="n">
-        <v>0.318982614736427</v>
-      </c>
-      <c r="F63" t="n">
         <v>0.5786690889292101</v>
       </c>
     </row>
@@ -1842,19 +1639,16 @@
           <t>Ferroquine_1G09</t>
         </is>
       </c>
-      <c r="B64" s="1" t="n">
-        <v>1</v>
+      <c r="B64" t="n">
+        <v>0.979658337046528</v>
       </c>
       <c r="C64" t="n">
-        <v>0.979658337046528</v>
+        <v>0.7992571448145382</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7992571448145382</v>
+        <v>0.746092554788207</v>
       </c>
       <c r="E64" t="n">
-        <v>0.746092554788207</v>
-      </c>
-      <c r="F64" t="n">
         <v>0.6718260805217328</v>
       </c>
     </row>
@@ -1864,19 +1658,16 @@
           <t>Fluconazole_2A11</t>
         </is>
       </c>
-      <c r="B65" s="1" t="n">
-        <v>1</v>
+      <c r="B65" t="n">
+        <v>0.08622708125090112</v>
       </c>
       <c r="C65" t="n">
-        <v>0.08622708125090112</v>
+        <v>0.976103748482265</v>
       </c>
       <c r="D65" t="n">
-        <v>0.976103748482265</v>
+        <v>0.02297031426120133</v>
       </c>
       <c r="E65" t="n">
-        <v>0.02297031426120133</v>
-      </c>
-      <c r="F65" t="n">
         <v>0.652906776745786</v>
       </c>
     </row>
@@ -1886,19 +1677,16 @@
           <t>Fluphenazine_1H06</t>
         </is>
       </c>
-      <c r="B66" s="1" t="n">
-        <v>1</v>
+      <c r="B66" t="n">
+        <v>0.5235473544614747</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5235473544614747</v>
+        <v>0.4551233155352149</v>
       </c>
       <c r="D66" t="n">
-        <v>0.4551233155352149</v>
+        <v>0.1297008991517001</v>
       </c>
       <c r="E66" t="n">
-        <v>0.1297008991517001</v>
-      </c>
-      <c r="F66" t="n">
         <v>0.8041571319603358</v>
       </c>
     </row>
@@ -1908,19 +1696,16 @@
           <t>Fluspirilene_2A02</t>
         </is>
       </c>
-      <c r="B67" s="1" t="n">
-        <v>1</v>
+      <c r="B67" t="n">
+        <v>0.4269113576750224</v>
       </c>
       <c r="C67" t="n">
-        <v>0.4269113576750224</v>
+        <v>0.4421775368215491</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4421775368215491</v>
+        <v>0.7053107887380101</v>
       </c>
       <c r="E67" t="n">
-        <v>0.7053107887380101</v>
-      </c>
-      <c r="F67" t="n">
         <v>0.6694111706224701</v>
       </c>
     </row>
@@ -1930,19 +1715,16 @@
           <t>GSK 983_1C07</t>
         </is>
       </c>
-      <c r="B68" s="1" t="n">
+      <c r="B68" t="n">
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0.01803533223813768</v>
       </c>
       <c r="D68" t="n">
-        <v>0.01803533223813768</v>
+        <v>0.9661135927592956</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9661135927592956</v>
-      </c>
-      <c r="F68" t="n">
         <v>0.0428645679326449</v>
       </c>
     </row>
@@ -1952,19 +1734,16 @@
           <t>GSK-369796_1C03</t>
         </is>
       </c>
-      <c r="B69" s="1" t="n">
-        <v>1</v>
+      <c r="B69" t="n">
+        <v>0.6250536437984548</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6250536437984548</v>
+        <v>0.06773393436481338</v>
       </c>
       <c r="D69" t="n">
-        <v>0.06773393436481338</v>
+        <v>0.3427279461054317</v>
       </c>
       <c r="E69" t="n">
-        <v>0.3427279461054317</v>
-      </c>
-      <c r="F69" t="n">
         <v>0.2882006306572232</v>
       </c>
     </row>
@@ -1974,19 +1753,16 @@
           <t>Halofantrine_1D05</t>
         </is>
       </c>
-      <c r="B70" s="1" t="n">
-        <v>1</v>
+      <c r="B70" t="n">
+        <v>0.02589375248337691</v>
       </c>
       <c r="C70" t="n">
-        <v>0.02589375248337691</v>
+        <v>0.01669598331229579</v>
       </c>
       <c r="D70" t="n">
-        <v>0.01669598331229579</v>
+        <v>0.001441391304063404</v>
       </c>
       <c r="E70" t="n">
-        <v>0.001441391304063404</v>
-      </c>
-      <c r="F70" t="n">
         <v>0.4034358268327601</v>
       </c>
     </row>
@@ -1996,19 +1772,16 @@
           <t>Haloperidol_1H07</t>
         </is>
       </c>
-      <c r="B71" s="1" t="n">
-        <v>1</v>
+      <c r="B71" t="n">
+        <v>0.3931346825806799</v>
       </c>
       <c r="C71" t="n">
-        <v>0.3931346825806799</v>
+        <v>0.3744169382613318</v>
       </c>
       <c r="D71" t="n">
-        <v>0.3744169382613318</v>
+        <v>0.7108281903705245</v>
       </c>
       <c r="E71" t="n">
-        <v>0.7108281903705245</v>
-      </c>
-      <c r="F71" t="n">
         <v>0.1747340683725123</v>
       </c>
     </row>
@@ -2018,19 +1791,16 @@
           <t>Hanfangchin B_2B04</t>
         </is>
       </c>
-      <c r="B72" s="1" t="n">
-        <v>1</v>
+      <c r="B72" t="n">
+        <v>0.07961927939442222</v>
       </c>
       <c r="C72" t="n">
-        <v>0.07961927939442222</v>
+        <v>0.08080808080808081</v>
       </c>
       <c r="D72" t="n">
-        <v>0.08080808080808081</v>
+        <v>0.3502789368989395</v>
       </c>
       <c r="E72" t="n">
-        <v>0.3502789368989395</v>
-      </c>
-      <c r="F72" t="n">
         <v>0.01917682682253957</v>
       </c>
     </row>
@@ -2040,19 +1810,16 @@
           <t>Hydroxychloroquine_1F11</t>
         </is>
       </c>
-      <c r="B73" s="1" t="n">
-        <v>1</v>
+      <c r="B73" t="n">
+        <v>0.8949149194881256</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8949149194881256</v>
+        <v>0.7344528284418692</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7344528284418692</v>
+        <v>0.4502417887297586</v>
       </c>
       <c r="E73" t="n">
-        <v>0.4502417887297586</v>
-      </c>
-      <c r="F73" t="n">
         <v>0.5768086443196911</v>
       </c>
     </row>
@@ -2062,19 +1829,16 @@
           <t>Hydroxyprogesterone_1E02</t>
         </is>
       </c>
-      <c r="B74" s="1" t="n">
-        <v>1</v>
+      <c r="B74" t="n">
+        <v>0.6889110889110889</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6889110889110889</v>
+        <v>0.3680655063054846</v>
       </c>
       <c r="D74" t="n">
-        <v>0.3680655063054846</v>
+        <v>0.4559440559440558</v>
       </c>
       <c r="E74" t="n">
-        <v>0.4559440559440558</v>
-      </c>
-      <c r="F74" t="n">
         <v>0.2721278721278721</v>
       </c>
     </row>
@@ -2084,19 +1848,16 @@
           <t>Idelalisib_2F07</t>
         </is>
       </c>
-      <c r="B75" s="1" t="n">
-        <v>1</v>
+      <c r="B75" t="n">
+        <v>0.4996256761230859</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4996256761230859</v>
+        <v>0.741723331035486</v>
       </c>
       <c r="D75" t="n">
-        <v>0.741723331035486</v>
+        <v>0.6967970185092274</v>
       </c>
       <c r="E75" t="n">
-        <v>0.6967970185092274</v>
-      </c>
-      <c r="F75" t="n">
         <v>0.833960822384567</v>
       </c>
     </row>
@@ -2106,19 +1867,16 @@
           <t>Imatinib_1H05</t>
         </is>
       </c>
-      <c r="B76" s="1" t="n">
-        <v>1</v>
+      <c r="B76" t="n">
+        <v>0.7909957097165785</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7909957097165785</v>
+        <v>0.9318909923028919</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9318909923028919</v>
+        <v>0.7538228971638583</v>
       </c>
       <c r="E76" t="n">
-        <v>0.7538228971638583</v>
-      </c>
-      <c r="F76" t="n">
         <v>0.4063444513787763</v>
       </c>
     </row>
@@ -2128,19 +1886,16 @@
           <t>Indinavir_2H06</t>
         </is>
       </c>
-      <c r="B77" s="1" t="n">
+      <c r="B77" t="n">
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>0.4166500106734323</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4166500106734323</v>
+        <v>0.6100933959326744</v>
       </c>
       <c r="E77" t="n">
-        <v>0.6100933959326744</v>
-      </c>
-      <c r="F77" t="n">
         <v>0.928439054701001</v>
       </c>
     </row>
@@ -2150,19 +1905,16 @@
           <t>Indomethacin_1F06</t>
         </is>
       </c>
-      <c r="B78" s="1" t="n">
-        <v>1</v>
+      <c r="B78" t="n">
+        <v>0.1228829342028369</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1228829342028369</v>
+        <v>0.1841182491045775</v>
       </c>
       <c r="D78" t="n">
-        <v>0.1841182491045775</v>
+        <v>0.1045183254786993</v>
       </c>
       <c r="E78" t="n">
-        <v>0.1045183254786993</v>
-      </c>
-      <c r="F78" t="n">
         <v>0.5549876883143734</v>
       </c>
     </row>
@@ -2172,19 +1924,16 @@
           <t>Itraconazole_1C06</t>
         </is>
       </c>
-      <c r="B79" s="1" t="n">
-        <v>1</v>
+      <c r="B79" t="n">
+        <v>0.2632229386540194</v>
       </c>
       <c r="C79" t="n">
-        <v>0.2632229386540194</v>
+        <v>0.01320544398720832</v>
       </c>
       <c r="D79" t="n">
-        <v>0.01320544398720832</v>
+        <v>0.1526412659292437</v>
       </c>
       <c r="E79" t="n">
-        <v>0.1526412659292437</v>
-      </c>
-      <c r="F79" t="n">
         <v>0.2755372992053938</v>
       </c>
     </row>
@@ -2194,2021 +1943,1597 @@
           <t>Ivermectin_1F05</t>
         </is>
       </c>
-      <c r="B80" s="1" t="n">
-        <v>5</v>
+      <c r="B80" t="n">
+        <v>0.001355088961772231</v>
       </c>
       <c r="C80" t="n">
-        <v>3.297574821622632e-05</v>
+        <v>0.02098535655868255</v>
       </c>
       <c r="D80" t="n">
-        <v>0.03953852133762179</v>
+        <v>2.703033281965671e-07</v>
       </c>
       <c r="E80" t="n">
-        <v>2.391966409957415e-06</v>
-      </c>
-      <c r="F80" t="n">
-        <v>4.939422982895444e-05</v>
+        <v>1.367158017954786e-07</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n"/>
-      <c r="B81" s="1" t="n">
-        <v>1</v>
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>JQ 1_2D03</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.06066765754047614</v>
       </c>
       <c r="C81" t="n">
-        <v>0.3150828267675855</v>
+        <v>0.2445210243216548</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1026841156436346</v>
+        <v>0.568560827007455</v>
       </c>
       <c r="E81" t="n">
-        <v>2.623973839864334e-05</v>
-      </c>
-      <c r="F81" t="n">
-        <v>1.978522621340022e-05</v>
+        <v>0.2635644369390499</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>JQ 1_2D03</t>
-        </is>
-      </c>
-      <c r="B82" s="1" t="n">
+          <t>Ketoconazole_1B06</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.3463996653690125</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.5915050369949164</v>
+      </c>
+      <c r="D82" t="n">
         <v>1</v>
       </c>
-      <c r="C82" t="n">
-        <v>0.06066765754047614</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0.2445210243216548</v>
-      </c>
       <c r="E82" t="n">
-        <v>0.568560827007455</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0.2635644369390499</v>
+        <v>0.4742743507673295</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Ketoconazole_1B06</t>
-        </is>
-      </c>
-      <c r="B83" s="1" t="n">
-        <v>1</v>
+          <t>LY 2228820_1C10</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.1699598834425667</v>
       </c>
       <c r="C83" t="n">
-        <v>0.3463996653690125</v>
+        <v>0.0428645679326449</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5915050369949164</v>
+        <v>0.5807564252665411</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
-      </c>
-      <c r="F83" t="n">
-        <v>0.4742743507673295</v>
+        <v>0.1159797091578824</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>LY 2228820_1C10</t>
-        </is>
-      </c>
-      <c r="B84" s="1" t="n">
-        <v>1</v>
+          <t>Lonafarnib_1C05</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.6343640788800242</v>
       </c>
       <c r="C84" t="n">
-        <v>0.1699598834425667</v>
+        <v>0.08662342748950824</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0428645679326449</v>
+        <v>0.387685237786081</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5807564252665411</v>
-      </c>
-      <c r="F84" t="n">
-        <v>0.1159797091578824</v>
+        <v>0.7446485590752736</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Lonafarnib_1C05</t>
-        </is>
-      </c>
-      <c r="B85" s="1" t="n">
-        <v>1</v>
+          <t>Lopinavir_1H04</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.3769905279251831</v>
       </c>
       <c r="C85" t="n">
-        <v>0.6343640788800242</v>
+        <v>0.8077987090195856</v>
       </c>
       <c r="D85" t="n">
-        <v>0.08662342748950824</v>
+        <v>0.9722771751108849</v>
       </c>
       <c r="E85" t="n">
-        <v>0.387685237786081</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0.7446485590752736</v>
+        <v>0.8802961970804533</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Lopinavir_1H04</t>
-        </is>
-      </c>
-      <c r="B86" s="1" t="n">
-        <v>1</v>
+          <t>Loratidine_1H09</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.4982360297098892</v>
       </c>
       <c r="C86" t="n">
-        <v>0.3769905279251831</v>
+        <v>0.5875117305780921</v>
       </c>
       <c r="D86" t="n">
-        <v>0.8077987090195856</v>
+        <v>0.2154099345861359</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9722771751108849</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0.8802961970804533</v>
+        <v>0.4746781314287035</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Loratidine_1H09</t>
-        </is>
-      </c>
-      <c r="B87" s="1" t="n">
-        <v>1</v>
+          <t>Losartan_2E08</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.9267490123683101</v>
       </c>
       <c r="C87" t="n">
-        <v>0.4982360297098892</v>
+        <v>0.8809755925114653</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5875117305780921</v>
+        <v>0.6100933959326744</v>
       </c>
       <c r="E87" t="n">
-        <v>0.2154099345861359</v>
-      </c>
-      <c r="F87" t="n">
-        <v>0.4746781314287035</v>
+        <v>0.4895774272540997</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Losartan_2E08</t>
-        </is>
-      </c>
-      <c r="B88" s="1" t="n">
-        <v>1</v>
+          <t>Lumefantrine_2B02</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.01166008051705587</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9267490123683101</v>
+        <v>0.976103748482265</v>
       </c>
       <c r="D88" t="n">
         <v>0.8809755925114653</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6100933959326744</v>
-      </c>
-      <c r="F88" t="n">
-        <v>0.4895774272540997</v>
+        <v>0.568560827007455</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Lumefantrine_2B02</t>
-        </is>
-      </c>
-      <c r="B89" s="1" t="n">
-        <v>1</v>
+          <t>Lusutrombopag_1A03</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.07238594280831903</v>
       </c>
       <c r="C89" t="n">
-        <v>0.01166008051705587</v>
+        <v>0.5915050369949164</v>
       </c>
       <c r="D89" t="n">
-        <v>0.976103748482265</v>
+        <v>0.2572389851810263</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8809755925114653</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0.568560827007455</v>
+        <v>0.4382390755499422</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Lusutrombopag_1A03</t>
-        </is>
-      </c>
-      <c r="B90" s="1" t="n">
-        <v>1</v>
+          <t>MK-2206_1G06</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.2719199729790919</v>
       </c>
       <c r="C90" t="n">
-        <v>0.07238594280831903</v>
+        <v>0.03244954122868887</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5915050369949164</v>
+        <v>0.03752061143365491</v>
       </c>
       <c r="E90" t="n">
-        <v>0.2572389851810263</v>
-      </c>
-      <c r="F90" t="n">
-        <v>0.4382390755499422</v>
+        <v>0.3542177629134152</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>MK-2206_1G06</t>
-        </is>
-      </c>
-      <c r="B91" s="1" t="n">
-        <v>1</v>
+          <t>MRT 68601_2E03</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.3414787726042569</v>
       </c>
       <c r="C91" t="n">
-        <v>0.2719199729790919</v>
+        <v>0.6967970185092274</v>
       </c>
       <c r="D91" t="n">
-        <v>0.03244954122868887</v>
+        <v>0.6967970185092274</v>
       </c>
       <c r="E91" t="n">
-        <v>0.03752061143365491</v>
-      </c>
-      <c r="F91" t="n">
-        <v>0.3542177629134152</v>
+        <v>0.7874627279661603</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>MRT 68601_2E03</t>
-        </is>
-      </c>
-      <c r="B92" s="1" t="n">
-        <v>1</v>
+          <t>Manidipine_1G03</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.009136501350946982</v>
       </c>
       <c r="C92" t="n">
-        <v>0.3414787726042569</v>
+        <v>0.05655675342403698</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6967970185092274</v>
+        <v>0.001339469145698837</v>
       </c>
       <c r="E92" t="n">
-        <v>0.6967970185092274</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0.7874627279661603</v>
+        <v>0.2308613144029583</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Manidipine_1G03</t>
-        </is>
-      </c>
-      <c r="B93" s="1" t="n">
-        <v>1</v>
+          <t>Merimepodib_2D08</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.5606472950656206</v>
       </c>
       <c r="C93" t="n">
-        <v>0.006207118132014179</v>
+        <v>0.8809755925114653</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0704173044375553</v>
+        <v>0.4895774272540997</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0004211677960260651</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0.3289086108932378</v>
+        <v>0.6100933959326744</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n"/>
-      <c r="B94" s="1" t="n">
-        <v>0.5</v>
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>Metformin_2A10</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.5184056260702273</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8697306455916582</v>
+        <v>0.05231477515768806</v>
       </c>
       <c r="D94" t="n">
-        <v>0.2014889177230471</v>
+        <v>0.568560827007455</v>
       </c>
       <c r="E94" t="n">
-        <v>0.7916533689167272</v>
-      </c>
-      <c r="F94" t="n">
-        <v>0.5419304293824668</v>
+        <v>0.03242819907243114</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>Merimepodib_2D08</t>
-        </is>
-      </c>
-      <c r="B95" s="1" t="n">
-        <v>1</v>
+          <t>Midostaurin_1G08</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.1608468403109343</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5606472950656206</v>
+        <v>0.075131581105843</v>
       </c>
       <c r="D95" t="n">
-        <v>0.8809755925114653</v>
+        <v>0.1116995140150702</v>
       </c>
       <c r="E95" t="n">
-        <v>0.4895774272540997</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.6100933959326744</v>
+        <v>0.1346251559550549</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Metformin_2A10</t>
-        </is>
-      </c>
-      <c r="B96" s="1" t="n">
-        <v>1</v>
+          <t>Migalastat_2A08</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.03423501174759513</v>
       </c>
       <c r="C96" t="n">
-        <v>0.5184056260702273</v>
+        <v>0.4166500106734323</v>
       </c>
       <c r="D96" t="n">
-        <v>0.05231477515768806</v>
+        <v>0.04482297738456037</v>
       </c>
       <c r="E96" t="n">
-        <v>0.568560827007455</v>
-      </c>
-      <c r="F96" t="n">
-        <v>0.03242819907243114</v>
+        <v>0.2907470178973746</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Midostaurin_1G08</t>
-        </is>
-      </c>
-      <c r="B97" s="1" t="n">
-        <v>1</v>
+          <t>Molnupiravir</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.5990340101915778</v>
       </c>
       <c r="C97" t="n">
-        <v>0.1337263827001361</v>
+        <v>0.5907353775226378</v>
       </c>
       <c r="D97" t="n">
-        <v>0.08977394532330969</v>
+        <v>0.8104566987637252</v>
       </c>
       <c r="E97" t="n">
-        <v>0.08987803537544031</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0.1855008755800271</v>
+        <v>0.9726678961900564</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n"/>
-      <c r="B98" s="1" t="n">
-        <v>0.5</v>
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>Mycophenolic acid_2B10</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.001681088563406427</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0004360443559850434</v>
+        <v>0.6755374319698761</v>
       </c>
       <c r="D98" t="n">
-        <v>0.01166062182959998</v>
+        <v>0.8020922938560414</v>
       </c>
       <c r="E98" t="n">
-        <v>0.8632508924755635</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0.05218432889274812</v>
+        <v>0.6936820551941612</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Migalastat_2A08</t>
-        </is>
-      </c>
-      <c r="B99" s="1" t="n">
-        <v>1</v>
+          <t>N-Desethylamodiaquine_1A07</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.8579053561672981</v>
       </c>
       <c r="C99" t="n">
-        <v>0.03423501174759513</v>
+        <v>0.6333423006990662</v>
       </c>
       <c r="D99" t="n">
-        <v>0.4166500106734323</v>
+        <v>0.09499904058321343</v>
       </c>
       <c r="E99" t="n">
-        <v>0.04482297738456037</v>
-      </c>
-      <c r="F99" t="n">
-        <v>0.2907470178973746</v>
+        <v>0.3107334896289614</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>Molnupiravir</t>
-        </is>
-      </c>
-      <c r="B100" s="1" t="n">
-        <v>0.5</v>
+          <t>Nafamostat_1E03</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.1134865134865135</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7942759167850013</v>
+        <v>0.7674700894710456</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3804945634224002</v>
+        <v>0.06633366633366634</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8682689480517528</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0.6355861222787667</v>
+        <v>0.3884115884115883</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n"/>
-      <c r="B101" s="1" t="n">
-        <v>1</v>
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>Naphtoquine_2H10</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.07022982551317455</v>
       </c>
       <c r="C101" t="n">
-        <v>0.5990340101915778</v>
+        <v>0.6967970185092274</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5907353775226378</v>
+        <v>0.3502789368989395</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8104566987637252</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0.9726678961900564</v>
+        <v>0.6967970185092274</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n"/>
-      <c r="B102" s="1" t="n">
-        <v>10</v>
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>Nebivolol_2F02</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.09189398004976111</v>
       </c>
       <c r="C102" t="n">
-        <v>0.6232450817696176</v>
+        <v>0.1719279210193196</v>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>0.05231477515768806</v>
       </c>
       <c r="E102" t="n">
-        <v>0.73187274419522</v>
-      </c>
-      <c r="F102" t="n">
-        <v>0.7752456918402622</v>
+        <v>0.2635644369390499</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n"/>
-      <c r="B103" s="1" t="n">
-        <v>25</v>
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>Nelfinavir_1A09</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.473889610263971</v>
       </c>
       <c r="C103" t="n">
-        <v>0.6151536049101074</v>
+        <v>0.5915050369949164</v>
       </c>
       <c r="D103" t="n">
-        <v>0.417282772993156</v>
+        <v>0.3400554635028641</v>
       </c>
       <c r="E103" t="n">
-        <v>0.4174362282964021</v>
-      </c>
-      <c r="F103" t="n">
-        <v>0.9181318299830692</v>
+        <v>0.5118799273370487</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Mycophenolic acid_2B10</t>
-        </is>
-      </c>
-      <c r="B104" s="1" t="n">
-        <v>1</v>
+          <t>Niclosamide_1A02</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0.6023878202011386</v>
       </c>
       <c r="C104" t="n">
-        <v>0.001681088563406427</v>
+        <v>0.01497032280472838</v>
       </c>
       <c r="D104" t="n">
-        <v>0.6755374319698761</v>
+        <v>0.1358286050707642</v>
       </c>
       <c r="E104" t="n">
-        <v>0.8020922938560414</v>
-      </c>
-      <c r="F104" t="n">
-        <v>0.6936820551941612</v>
+        <v>0.007064860477163614</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>N-Desethylamodiaquine_1A07</t>
-        </is>
-      </c>
-      <c r="B105" s="1" t="n">
-        <v>1</v>
+          <t>Nifedipine_2E09</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.6905353622861083</v>
       </c>
       <c r="C105" t="n">
-        <v>0.8579053561672981</v>
+        <v>0.568560827007455</v>
       </c>
       <c r="D105" t="n">
-        <v>0.6333423006990662</v>
+        <v>0.928439054701001</v>
       </c>
       <c r="E105" t="n">
-        <v>0.09499904058321343</v>
-      </c>
-      <c r="F105" t="n">
-        <v>0.3107334896289614</v>
+        <v>0.4523006345593503</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Nafamostat_1E03</t>
-        </is>
-      </c>
-      <c r="B106" s="1" t="n">
+          <t>Nitazoxanide_1G05</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
         <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>0.1134865134865135</v>
+        <v>0.02192860739483461</v>
       </c>
       <c r="D106" t="n">
-        <v>0.7674700894710456</v>
+        <v>0.1990865816952774</v>
       </c>
       <c r="E106" t="n">
-        <v>0.06633366633366634</v>
-      </c>
-      <c r="F106" t="n">
-        <v>0.3884115884115883</v>
+        <v>0.02468449424971164</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>Naphtoquine_2H10</t>
-        </is>
-      </c>
-      <c r="B107" s="1" t="n">
-        <v>1</v>
+          <t>ONO 5334_1A05</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0.8345053075640024</v>
       </c>
       <c r="C107" t="n">
-        <v>0.07022982551317455</v>
+        <v>0.6333423006990662</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6967970185092274</v>
+        <v>0.8580276569875211</v>
       </c>
       <c r="E107" t="n">
-        <v>0.3502789368989395</v>
-      </c>
-      <c r="F107" t="n">
-        <v>0.6967970185092274</v>
+        <v>0.5915050369949164</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Nebivolol_2F02</t>
-        </is>
-      </c>
-      <c r="B108" s="1" t="n">
-        <v>1</v>
+          <t>Osimertinib_2D05</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.9755524297158057</v>
       </c>
       <c r="C108" t="n">
-        <v>0.09189398004976111</v>
+        <v>0.1056384276198518</v>
       </c>
       <c r="D108" t="n">
         <v>0.1719279210193196</v>
       </c>
       <c r="E108" t="n">
-        <v>0.05231477515768806</v>
-      </c>
-      <c r="F108" t="n">
-        <v>0.2635644369390499</v>
+        <v>0.07022982551317455</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Nelfinavir_1A09</t>
-        </is>
-      </c>
-      <c r="B109" s="1" t="n">
-        <v>1</v>
+          <t>Oxatomide_2F10</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0.124963220223634</v>
       </c>
       <c r="C109" t="n">
-        <v>0.473889610263971</v>
+        <v>0.4166500106734323</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5915050369949164</v>
+        <v>0.6967970185092274</v>
       </c>
       <c r="E109" t="n">
-        <v>0.3400554635028641</v>
-      </c>
-      <c r="F109" t="n">
-        <v>0.5118799273370487</v>
+        <v>0.4523006345593503</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Niclosamide_1A02</t>
-        </is>
-      </c>
-      <c r="B110" s="1" t="n">
-        <v>0.5</v>
+          <t>Oxyclozanide_2C03</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.04284308315285285</v>
       </c>
       <c r="C110" t="n">
-        <v>0.6023878202011386</v>
+        <v>0.006216189804904263</v>
       </c>
       <c r="D110" t="n">
-        <v>0.01497032280472838</v>
+        <v>0.1056384276198518</v>
       </c>
       <c r="E110" t="n">
-        <v>0.1358286050707642</v>
-      </c>
-      <c r="F110" t="n">
-        <v>0.007064860477163614</v>
+        <v>0.09260188369085934</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Nifedipine_2E09</t>
-        </is>
-      </c>
-      <c r="B111" s="1" t="n">
-        <v>1</v>
+          <t>Ozanimod_1H08</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.4656383435801913</v>
       </c>
       <c r="C111" t="n">
-        <v>0.6905353622861083</v>
+        <v>0.1747340683725123</v>
       </c>
       <c r="D111" t="n">
-        <v>0.568560827007455</v>
+        <v>0.5109881422924901</v>
       </c>
       <c r="E111" t="n">
-        <v>0.928439054701001</v>
-      </c>
-      <c r="F111" t="n">
-        <v>0.4523006345593503</v>
+        <v>0.7975332270069113</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>Nitazoxanide_1G05</t>
-        </is>
-      </c>
-      <c r="B112" s="1" t="n">
-        <v>1</v>
+          <t>PB 28_2C08</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0.1580888426185505</v>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>0.255184388614118</v>
       </c>
       <c r="D112" t="n">
-        <v>0.02192860739483461</v>
+        <v>0.2635644369390499</v>
       </c>
       <c r="E112" t="n">
-        <v>0.1990865816952774</v>
-      </c>
-      <c r="F112" t="n">
-        <v>0.02468449424971164</v>
+        <v>0.4895774272540997</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>ONO 5334_1A05</t>
-        </is>
-      </c>
-      <c r="B113" s="1" t="n">
-        <v>1</v>
+          <t>PD 144418_2E04</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0.1870112715961035</v>
       </c>
       <c r="C113" t="n">
-        <v>0.8345053075640024</v>
+        <v>0.2907470178973746</v>
       </c>
       <c r="D113" t="n">
-        <v>0.6333423006990662</v>
+        <v>0.319629190002053</v>
       </c>
       <c r="E113" t="n">
-        <v>0.8580276569875211</v>
-      </c>
-      <c r="F113" t="n">
-        <v>0.5915050369949164</v>
+        <v>0.2907470178973746</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Osimertinib_2D05</t>
-        </is>
-      </c>
-      <c r="B114" s="1" t="n">
-        <v>1</v>
+          <t>Papaverine_1C02</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.9539568867207746</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9755524297158057</v>
+        <v>0.2179455072952519</v>
       </c>
       <c r="D114" t="n">
-        <v>0.1056384276198518</v>
+        <v>0.7446485590752736</v>
       </c>
       <c r="E114" t="n">
-        <v>0.1719279210193196</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0.07022982551317455</v>
+        <v>0.2632590389305653</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Oxatomide_2F10</t>
-        </is>
-      </c>
-      <c r="B115" s="1" t="n">
-        <v>1</v>
+          <t>Paroxetine_2G11</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0.04561697252288059</v>
       </c>
       <c r="C115" t="n">
-        <v>0.124963220223634</v>
+        <v>0.5004663483871781</v>
       </c>
       <c r="D115" t="n">
-        <v>0.4166500106734323</v>
+        <v>0.0009436130044556481</v>
       </c>
       <c r="E115" t="n">
         <v>0.6967970185092274</v>
       </c>
-      <c r="F115" t="n">
-        <v>0.4523006345593503</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Oxyclozanide_2C03</t>
-        </is>
-      </c>
-      <c r="B116" s="1" t="n">
-        <v>1</v>
+          <t>Pevonedistat_1H02</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0.3964559503347065</v>
       </c>
       <c r="C116" t="n">
-        <v>0.04284308315285285</v>
+        <v>0.9772637126412872</v>
       </c>
       <c r="D116" t="n">
-        <v>0.006216189804904263</v>
+        <v>0.4746781314287035</v>
       </c>
       <c r="E116" t="n">
-        <v>0.1056384276198518</v>
-      </c>
-      <c r="F116" t="n">
-        <v>0.09260188369085934</v>
+        <v>0.2621639738344543</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Ozanimod_1H08</t>
-        </is>
-      </c>
-      <c r="B117" s="1" t="n">
-        <v>1</v>
+          <t>Pexidartanib_1B05</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0.401776830539974</v>
       </c>
       <c r="C117" t="n">
-        <v>0.4656383435801913</v>
+        <v>0.5915050369949164</v>
       </c>
       <c r="D117" t="n">
-        <v>0.1747340683725123</v>
+        <v>0.8114825221108789</v>
       </c>
       <c r="E117" t="n">
-        <v>0.5109881422924901</v>
-      </c>
-      <c r="F117" t="n">
-        <v>0.7975332270069113</v>
+        <v>0.5118799273370487</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>PB 28_2C08</t>
-        </is>
-      </c>
-      <c r="B118" s="1" t="n">
-        <v>1</v>
+          <t>Pimozide_2G07</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0.0001658905718858436</v>
       </c>
       <c r="C118" t="n">
-        <v>0.1580888426185505</v>
+        <v>0.1573070163663122</v>
       </c>
       <c r="D118" t="n">
-        <v>0.255184388614118</v>
+        <v>6.864156241230583e-06</v>
       </c>
       <c r="E118" t="n">
-        <v>0.2635644369390499</v>
-      </c>
-      <c r="F118" t="n">
-        <v>0.4895774272540997</v>
+        <v>2.821607104631904e-06</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>PD 144418_2E04</t>
-        </is>
-      </c>
-      <c r="B119" s="1" t="n">
-        <v>1</v>
+          <t>Piperaquine_2H11</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0.4523006345593503</v>
       </c>
       <c r="C119" t="n">
-        <v>0.1870112715961035</v>
+        <v>0.2907470178973746</v>
       </c>
       <c r="D119" t="n">
-        <v>0.2907470178973746</v>
+        <v>0.2381412727354307</v>
       </c>
       <c r="E119" t="n">
-        <v>0.319629190002053</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0.2907470178973746</v>
+        <v>0.3502789368989395</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Papaverine_1C02</t>
-        </is>
-      </c>
-      <c r="B120" s="1" t="n">
-        <v>1</v>
+          <t>Ponatinib_2A07</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0.2070142639610669</v>
       </c>
       <c r="C120" t="n">
-        <v>0.9539568867207746</v>
+        <v>0.0005509423152537261</v>
       </c>
       <c r="D120" t="n">
-        <v>0.2179455072952519</v>
+        <v>6.747629406719359e-06</v>
       </c>
       <c r="E120" t="n">
-        <v>0.7446485590752736</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0.2632590389305653</v>
+        <v>0.3351786612537283</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Paroxetine_2G11</t>
-        </is>
-      </c>
-      <c r="B121" s="1" t="n">
-        <v>1</v>
+          <t>Posaconazole_1H10</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0.8357999532871423</v>
       </c>
       <c r="C121" t="n">
-        <v>0.04561697252288059</v>
+        <v>0.7538228971638583</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5004663483871781</v>
+        <v>0.7108281903705245</v>
       </c>
       <c r="E121" t="n">
-        <v>0.0009436130044556481</v>
-      </c>
-      <c r="F121" t="n">
-        <v>0.6967970185092274</v>
+        <v>0.2878653815038254</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Pevonedistat_1H02</t>
-        </is>
-      </c>
-      <c r="B122" s="1" t="n">
-        <v>1</v>
+          <t>Promethazine_2F11</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0.2196662480247191</v>
       </c>
       <c r="C122" t="n">
-        <v>0.3964559503347065</v>
+        <v>0.833960822384567</v>
       </c>
       <c r="D122" t="n">
-        <v>0.9772637126412872</v>
+        <v>0.652906776745786</v>
       </c>
       <c r="E122" t="n">
-        <v>0.4746781314287035</v>
-      </c>
-      <c r="F122" t="n">
-        <v>0.2621639738344543</v>
+        <v>0.8809755925114653</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Pexidartanib_1B05</t>
-        </is>
-      </c>
-      <c r="B123" s="1" t="n">
-        <v>1</v>
+          <t>Proscillaridin_2C06</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0.2693006711568013</v>
       </c>
       <c r="C123" t="n">
-        <v>0.401776830539974</v>
+        <v>0.08401694504814261</v>
       </c>
       <c r="D123" t="n">
-        <v>0.5915050369949164</v>
+        <v>0.08080808080808081</v>
       </c>
       <c r="E123" t="n">
-        <v>0.8114825221108789</v>
-      </c>
-      <c r="F123" t="n">
-        <v>0.5118799273370487</v>
+        <v>0.2381412727354307</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Pimozide_2G07</t>
-        </is>
-      </c>
-      <c r="B124" s="1" t="n">
-        <v>1</v>
+          <t>Pyronaridine_1H11</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0.7477232196163134</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0001658905718858436</v>
+        <v>0.4746781314287035</v>
       </c>
       <c r="D124" t="n">
-        <v>0.1573070163663122</v>
+        <v>0.3439983357603494</v>
       </c>
       <c r="E124" t="n">
-        <v>6.864156241230583e-06</v>
-      </c>
-      <c r="F124" t="n">
-        <v>2.821607104631904e-06</v>
+        <v>0.5486073550146777</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Piperaquine_2H11</t>
-        </is>
-      </c>
-      <c r="B125" s="1" t="n">
-        <v>1</v>
+          <t>R 7112_1B09</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0.854215121346982</v>
       </c>
       <c r="C125" t="n">
-        <v>0.4523006345593503</v>
+        <v>0.8114825221108789</v>
       </c>
       <c r="D125" t="n">
-        <v>0.2907470178973746</v>
+        <v>0.9524515354386665</v>
       </c>
       <c r="E125" t="n">
-        <v>0.2381412727354307</v>
-      </c>
-      <c r="F125" t="n">
-        <v>0.3502789368989395</v>
+        <v>0.6763863260009093</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Ponatinib_2A07</t>
-        </is>
-      </c>
-      <c r="B126" s="1" t="n">
-        <v>1</v>
+          <t>RVX 208_2D04</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0.2092477961201755</v>
       </c>
       <c r="C126" t="n">
-        <v>0.1496112396573779</v>
+        <v>0.652906776745786</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0006399176150131666</v>
+        <v>0.6100933959326744</v>
       </c>
       <c r="E126" t="n">
-        <v>8.522314152895089e-07</v>
-      </c>
-      <c r="F126" t="n">
-        <v>0.2453179726645942</v>
+        <v>0.4523006345593503</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="n"/>
-      <c r="B127" s="1" t="n">
-        <v>0.5</v>
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>Rapamycin_2A06</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0.2960107438202909</v>
       </c>
       <c r="C127" t="n">
-        <v>0.09653034206512165</v>
+        <v>1.111836866377888e-06</v>
       </c>
       <c r="D127" t="n">
-        <v>0.3413625124186542</v>
+        <v>0.0585612332532541</v>
       </c>
       <c r="E127" t="n">
-        <v>0.01231141570696449</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0.9108904844226167</v>
+        <v>0.1836290507711351</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Posaconazole_1H10</t>
-        </is>
-      </c>
-      <c r="B128" s="1" t="n">
-        <v>1</v>
+          <t>Ravuconazole_1D06</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>0.03095742819918245</v>
       </c>
       <c r="C128" t="n">
-        <v>0.8357999532871423</v>
+        <v>0.03249114784660932</v>
       </c>
       <c r="D128" t="n">
-        <v>0.7538228971638583</v>
+        <v>2.947258293740554e-05</v>
       </c>
       <c r="E128" t="n">
-        <v>0.7108281903705245</v>
-      </c>
-      <c r="F128" t="n">
-        <v>0.2878653815038254</v>
+        <v>0.009553089144917013</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Promethazine_2F11</t>
-        </is>
-      </c>
-      <c r="B129" s="1" t="n">
-        <v>1</v>
+          <t>Regorafenib_1B04</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0.0001250559477593767</v>
       </c>
       <c r="C129" t="n">
-        <v>0.2196662480247191</v>
+        <v>0.009896474809089317</v>
       </c>
       <c r="D129" t="n">
-        <v>0.833960822384567</v>
+        <v>2.016970333626156e-06</v>
       </c>
       <c r="E129" t="n">
-        <v>0.652906776745786</v>
-      </c>
-      <c r="F129" t="n">
-        <v>0.8809755925114653</v>
+        <v>0.1411981935657903</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Proscillaridin_2C06</t>
-        </is>
-      </c>
-      <c r="B130" s="1" t="n">
-        <v>1</v>
+          <t>Remdesivir_1A06</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0.621299167801354</v>
       </c>
       <c r="C130" t="n">
-        <v>0.2693006711568013</v>
+        <v>0.482915240748893</v>
       </c>
       <c r="D130" t="n">
-        <v>0.08401694504814261</v>
+        <v>0.2954328504393152</v>
       </c>
       <c r="E130" t="n">
-        <v>0.08080808080808081</v>
-      </c>
-      <c r="F130" t="n">
-        <v>0.2381412727354307</v>
+        <v>0.5141529015202588</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Pyronaridine_1H11</t>
-        </is>
-      </c>
-      <c r="B131" s="1" t="n">
-        <v>1</v>
+          <t>Ribavirin_1F08</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>0.9320832180672197</v>
       </c>
       <c r="C131" t="n">
-        <v>0.7477232196163134</v>
+        <v>0.5134020975609405</v>
       </c>
       <c r="D131" t="n">
-        <v>0.4746781314287035</v>
+        <v>0.9160495233785464</v>
       </c>
       <c r="E131" t="n">
-        <v>0.3439983357603494</v>
-      </c>
-      <c r="F131" t="n">
-        <v>0.5486073550146777</v>
+        <v>0.6128750455078106</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>R 7112_1B09</t>
-        </is>
-      </c>
-      <c r="B132" s="1" t="n">
-        <v>1</v>
+          <t>Ritonavir_1A11</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0.5522835699908166</v>
       </c>
       <c r="C132" t="n">
-        <v>0.854215121346982</v>
+        <v>0.5536169919657805</v>
       </c>
       <c r="D132" t="n">
-        <v>0.8114825221108789</v>
+        <v>0.09251633814697276</v>
       </c>
       <c r="E132" t="n">
-        <v>0.9524515354386665</v>
-      </c>
-      <c r="F132" t="n">
-        <v>0.6763863260009093</v>
+        <v>0.1925175724364714</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>RVX 208_2D04</t>
-        </is>
-      </c>
-      <c r="B133" s="1" t="n">
-        <v>1</v>
+          <t>Ruxolitinib_1B11</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>0.4676652851268758</v>
       </c>
       <c r="C133" t="n">
-        <v>0.2092477961201755</v>
+        <v>0.217917085370308</v>
       </c>
       <c r="D133" t="n">
-        <v>0.652906776745786</v>
+        <v>0.3679232238846956</v>
       </c>
       <c r="E133" t="n">
-        <v>0.6100933959326744</v>
-      </c>
-      <c r="F133" t="n">
-        <v>0.4523006345593503</v>
+        <v>0.1294149218111233</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Rapamycin_2A06</t>
-        </is>
-      </c>
-      <c r="B134" s="1" t="n">
-        <v>1</v>
+          <t>SAX-187_1G10</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>0.2965075417630152</v>
       </c>
       <c r="C134" t="n">
-        <v>0.2960107438202909</v>
+        <v>0.6005099570316963</v>
       </c>
       <c r="D134" t="n">
-        <v>1.111836866377888e-06</v>
+        <v>0.9009483270352836</v>
       </c>
       <c r="E134" t="n">
-        <v>0.0585612332532541</v>
-      </c>
-      <c r="F134" t="n">
-        <v>0.1836290507711351</v>
+        <v>0.5661385313559228</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>Ravuconazole_1D06</t>
-        </is>
-      </c>
-      <c r="B135" s="1" t="n">
-        <v>1</v>
+          <t>SMN-C3_1E11</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0.3884115884115883</v>
       </c>
       <c r="C135" t="n">
-        <v>0.03095742819918245</v>
+        <v>0.5521186425697754</v>
       </c>
       <c r="D135" t="n">
-        <v>0.03249114784660932</v>
+        <v>0.5286713286713286</v>
       </c>
       <c r="E135" t="n">
-        <v>2.947258293740554e-05</v>
-      </c>
-      <c r="F135" t="n">
-        <v>0.009553089144917013</v>
+        <v>0.3884115884115883</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Regorafenib_1B04</t>
-        </is>
-      </c>
-      <c r="B136" s="1" t="n">
-        <v>1</v>
+          <t>Salinomycin_2D02</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0.150040574694299</v>
       </c>
       <c r="C136" t="n">
-        <v>0.0001250559477593767</v>
+        <v>0.2381412727354307</v>
       </c>
       <c r="D136" t="n">
-        <v>0.009896474809089317</v>
+        <v>0.319629190002053</v>
       </c>
       <c r="E136" t="n">
-        <v>2.016970333626156e-06</v>
-      </c>
-      <c r="F136" t="n">
-        <v>0.1411981935657903</v>
+        <v>0.4166500106734323</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Remdesivir_1A06</t>
-        </is>
-      </c>
-      <c r="B137" s="1" t="n">
-        <v>1</v>
+          <t>Selumetinib_2G05</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>0.5606472950656206</v>
       </c>
       <c r="C137" t="n">
-        <v>0.621299167801354</v>
+        <v>0.3911642810877407</v>
       </c>
       <c r="D137" t="n">
-        <v>0.482915240748893</v>
+        <v>0.928439054701001</v>
       </c>
       <c r="E137" t="n">
-        <v>0.2954328504393152</v>
-      </c>
-      <c r="F137" t="n">
-        <v>0.5141529015202588</v>
+        <v>0.4166500106734323</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Ribavirin_1F08</t>
-        </is>
-      </c>
-      <c r="B138" s="1" t="n">
-        <v>1</v>
+          <t>Sertindole_2G08</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0.4622380192907116</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9320832180672197</v>
+        <v>0.06157244419473925</v>
       </c>
       <c r="D138" t="n">
-        <v>0.5134020975609405</v>
+        <v>0.7874627279661603</v>
       </c>
       <c r="E138" t="n">
-        <v>0.9160495233785464</v>
-      </c>
-      <c r="F138" t="n">
-        <v>0.6128750455078106</v>
+        <v>0.05231477515768806</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Ritonavir_1A11</t>
-        </is>
-      </c>
-      <c r="B139" s="1" t="n">
-        <v>1</v>
+          <t>Silmitasertib_2C02</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0.4809088956582176</v>
       </c>
       <c r="C139" t="n">
-        <v>0.5522835699908166</v>
+        <v>0.4224307133383294</v>
       </c>
       <c r="D139" t="n">
-        <v>0.5536169919657805</v>
+        <v>0.741723331035486</v>
       </c>
       <c r="E139" t="n">
-        <v>0.09251633814697276</v>
-      </c>
-      <c r="F139" t="n">
-        <v>0.1925175724364714</v>
+        <v>0.4895774272540997</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Ruxolitinib_1B11</t>
-        </is>
-      </c>
-      <c r="B140" s="1" t="n">
-        <v>1</v>
+          <t>Simeprevir_1D09</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>0.1391274997601011</v>
       </c>
       <c r="C140" t="n">
-        <v>0.4676652851268758</v>
+        <v>0.8985848251722703</v>
       </c>
       <c r="D140" t="n">
-        <v>0.217917085370308</v>
+        <v>0.387685237786081</v>
       </c>
       <c r="E140" t="n">
-        <v>0.3679232238846956</v>
-      </c>
-      <c r="F140" t="n">
-        <v>0.1294149218111233</v>
+        <v>0.9661135927592956</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>SAX-187_1G10</t>
-        </is>
-      </c>
-      <c r="B141" s="1" t="n">
+          <t>Sofosbuvir_1E09</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0.3884115884115883</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.3680655063054846</v>
+      </c>
+      <c r="D141" t="n">
         <v>1</v>
       </c>
-      <c r="C141" t="n">
-        <v>0.2965075417630152</v>
-      </c>
-      <c r="D141" t="n">
-        <v>0.6005099570316963</v>
-      </c>
       <c r="E141" t="n">
-        <v>0.9009483270352836</v>
-      </c>
-      <c r="F141" t="n">
-        <v>0.5661385313559228</v>
+        <v>0.4559440559440558</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>SMN-C3_1E11</t>
-        </is>
-      </c>
-      <c r="B142" s="1" t="n">
-        <v>1</v>
+          <t>Sorafenib_1F09</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>0.6560490709876038</v>
       </c>
       <c r="C142" t="n">
-        <v>0.3884115884115883</v>
+        <v>1.965520472744231e-05</v>
       </c>
       <c r="D142" t="n">
-        <v>0.5521186425697754</v>
+        <v>0.005901205906274882</v>
       </c>
       <c r="E142" t="n">
-        <v>0.5286713286713286</v>
-      </c>
-      <c r="F142" t="n">
-        <v>0.3884115884115883</v>
+        <v>0.6981923705829974</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Salinomycin_2D02</t>
-        </is>
-      </c>
-      <c r="B143" s="1" t="n">
-        <v>1</v>
+          <t>Spectinomycin_2F09</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>0.4793736799483984</v>
       </c>
       <c r="C143" t="n">
-        <v>0.150040574694299</v>
+        <v>0.5283308247368013</v>
       </c>
       <c r="D143" t="n">
-        <v>0.2381412727354307</v>
+        <v>0.833960822384567</v>
       </c>
       <c r="E143" t="n">
-        <v>0.319629190002053</v>
-      </c>
-      <c r="F143" t="n">
-        <v>0.4166500106734323</v>
+        <v>0.6967970185092274</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Selumetinib_2G05</t>
-        </is>
-      </c>
-      <c r="B144" s="1" t="n">
-        <v>1</v>
+          <t>Tacrolimus_2B07</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0.8452466401160982</v>
       </c>
       <c r="C144" t="n">
-        <v>0.5606472950656206</v>
+        <v>0.3231042517261287</v>
       </c>
       <c r="D144" t="n">
-        <v>0.3911642810877407</v>
+        <v>0.3731927364392489</v>
       </c>
       <c r="E144" t="n">
-        <v>0.928439054701001</v>
-      </c>
-      <c r="F144" t="n">
-        <v>0.4166500106734323</v>
+        <v>0.5830307494472751</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>Sertindole_2G08</t>
-        </is>
-      </c>
-      <c r="B145" s="1" t="n">
-        <v>1</v>
+          <t>Tenofovir_2B11</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>0.1407781939278167</v>
       </c>
       <c r="C145" t="n">
-        <v>0.4622380192907116</v>
+        <v>0.8809755925114653</v>
       </c>
       <c r="D145" t="n">
-        <v>0.06157244419473925</v>
+        <v>0.1923556469255756</v>
       </c>
       <c r="E145" t="n">
-        <v>0.7874627279661603</v>
-      </c>
-      <c r="F145" t="n">
-        <v>0.05231477515768806</v>
+        <v>0.976103748482265</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Silmitasertib_2C02</t>
-        </is>
-      </c>
-      <c r="B146" s="1" t="n">
-        <v>1</v>
+          <t>Terconazole_1G07</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>0.09283940723537555</v>
       </c>
       <c r="C146" t="n">
-        <v>0.4809088956582176</v>
+        <v>0.0100175513957978</v>
       </c>
       <c r="D146" t="n">
-        <v>0.4224307133383294</v>
+        <v>0.5661385313559228</v>
       </c>
       <c r="E146" t="n">
-        <v>0.741723331035486</v>
-      </c>
-      <c r="F146" t="n">
-        <v>0.4895774272540997</v>
+        <v>0.01832627919584441</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>Simeprevir_1D09</t>
-        </is>
-      </c>
-      <c r="B147" s="1" t="n">
-        <v>1</v>
+          <t>Tetracycline_2A03</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>0.9264931665401432</v>
       </c>
       <c r="C147" t="n">
-        <v>0.1391274997601011</v>
+        <v>0.7874627279661603</v>
       </c>
       <c r="D147" t="n">
-        <v>0.8985848251722703</v>
+        <v>0.568560827007455</v>
       </c>
       <c r="E147" t="n">
-        <v>0.387685237786081</v>
-      </c>
-      <c r="F147" t="n">
-        <v>0.9661135927592956</v>
+        <v>0.6967970185092274</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Sofosbuvir_1E09</t>
-        </is>
-      </c>
-      <c r="B148" s="1" t="n">
-        <v>1</v>
+          <t>Tetrandrine_1H03</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>0.9766048784928948</v>
       </c>
       <c r="C148" t="n">
-        <v>0.3884115884115883</v>
+        <v>0.08581189469061323</v>
       </c>
       <c r="D148" t="n">
-        <v>0.3680655063054846</v>
+        <v>0.4397956683540207</v>
       </c>
       <c r="E148" t="n">
-        <v>1</v>
-      </c>
-      <c r="F148" t="n">
-        <v>0.4559440559440558</v>
+        <v>0.09749115872685668</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Sorafenib_1F09</t>
-        </is>
-      </c>
-      <c r="B149" s="1" t="n">
-        <v>1</v>
+          <t>Thiethylperazine_2B06</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0.06560337313386197</v>
       </c>
       <c r="C149" t="n">
-        <v>0.6560490709876038</v>
+        <v>0.1923556469255756</v>
       </c>
       <c r="D149" t="n">
-        <v>1.965520472744231e-05</v>
+        <v>0.8809755925114653</v>
       </c>
       <c r="E149" t="n">
-        <v>0.005901205906274882</v>
-      </c>
-      <c r="F149" t="n">
-        <v>0.6981923705829974</v>
+        <v>0.2907470178973746</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Spectinomycin_2F09</t>
-        </is>
-      </c>
-      <c r="B150" s="1" t="n">
-        <v>1</v>
+          <t>Tigecycline_1C11</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>0.6313792835782409</v>
       </c>
       <c r="C150" t="n">
-        <v>0.4793736799483984</v>
+        <v>0.2632590389305653</v>
       </c>
       <c r="D150" t="n">
-        <v>0.5283308247368013</v>
+        <v>0.0428645679326449</v>
       </c>
       <c r="E150" t="n">
-        <v>0.833960822384567</v>
-      </c>
-      <c r="F150" t="n">
-        <v>0.6967970185092274</v>
+        <v>0.8985848251722703</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Tacrolimus_2B07</t>
-        </is>
-      </c>
-      <c r="B151" s="1" t="n">
-        <v>1</v>
+          <t>Tioguanine_1C08</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>0.9653168201675238</v>
       </c>
       <c r="C151" t="n">
-        <v>0.7698716003809861</v>
+        <v>0.01219322853180701</v>
       </c>
       <c r="D151" t="n">
-        <v>0.4369524494498999</v>
+        <v>0.1297141259088941</v>
       </c>
       <c r="E151" t="n">
-        <v>0.1784122787558455</v>
-      </c>
-      <c r="F151" t="n">
-        <v>0.5528895175415411</v>
+        <v>0.1446790757206655</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="n"/>
-      <c r="B152" s="1" t="n">
-        <v>0.5</v>
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>Tizoxanide_1D07</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>0.04159570507835152</v>
       </c>
       <c r="C152" t="n">
-        <v>0.889053299699931</v>
+        <v>0.4360641754459801</v>
       </c>
       <c r="D152" t="n">
-        <v>0.1622900851922289</v>
+        <v>0.5056870156829876</v>
       </c>
       <c r="E152" t="n">
-        <v>0.9702439856371398</v>
-      </c>
-      <c r="F152" t="n">
-        <v>0.5922071884329052</v>
+        <v>0.8762132735307269</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>Tenofovir_2B11</t>
-        </is>
-      </c>
-      <c r="B153" s="1" t="n">
-        <v>1</v>
+          <t>Tomivosertib_1C09</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>0.9538695788113046</v>
       </c>
       <c r="C153" t="n">
-        <v>0.1407781939278167</v>
+        <v>0.007441008771008368</v>
       </c>
       <c r="D153" t="n">
-        <v>0.8809755925114653</v>
+        <v>0.05237227024583998</v>
       </c>
       <c r="E153" t="n">
-        <v>0.1923556469255756</v>
-      </c>
-      <c r="F153" t="n">
-        <v>0.976103748482265</v>
+        <v>0.09755173387356976</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Terconazole_1G07</t>
-        </is>
-      </c>
-      <c r="B154" s="1" t="n">
-        <v>0.5</v>
+          <t>Toremifene_2A04</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0.8777965266594532</v>
       </c>
       <c r="C154" t="n">
-        <v>0.8668264645560116</v>
+        <v>0.6100933959326744</v>
       </c>
       <c r="D154" t="n">
-        <v>0.06509577987801647</v>
+        <v>0.2381412727354307</v>
       </c>
       <c r="E154" t="n">
-        <v>0.6433731865860117</v>
-      </c>
-      <c r="F154" t="n">
-        <v>0.1694025333157196</v>
+        <v>0.928439054701001</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="n"/>
-      <c r="B155" s="1" t="n">
-        <v>1</v>
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>Triparanol_1E07</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>0.181018981018981</v>
       </c>
       <c r="C155" t="n">
-        <v>0.04664740660540095</v>
+        <v>0.6744503828211919</v>
       </c>
       <c r="D155" t="n">
-        <v>0.01082251180458179</v>
+        <v>0.3276723276723276</v>
       </c>
       <c r="E155" t="n">
-        <v>0.5201989022032608</v>
-      </c>
-      <c r="F155" t="n">
-        <v>0.01001943056455401</v>
+        <v>0.7756243756243756</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Tetracycline_2A03</t>
-        </is>
-      </c>
-      <c r="B156" s="1" t="n">
-        <v>1</v>
+          <t>Umifenovir_2E02</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>0.7470898205252594</v>
       </c>
       <c r="C156" t="n">
-        <v>0.9264931665401432</v>
+        <v>0.5583865382008069</v>
       </c>
       <c r="D156" t="n">
-        <v>0.7874627279661603</v>
+        <v>0.4813209172991986</v>
       </c>
       <c r="E156" t="n">
-        <v>0.568560827007455</v>
-      </c>
-      <c r="F156" t="n">
-        <v>0.6967970185092274</v>
+        <v>0.2881280780154699</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Tetrandrine_1H03</t>
-        </is>
-      </c>
-      <c r="B157" s="1" t="n">
+          <t>Valdecoxib_2G10</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>0.782695897504828</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.6967970185092274</v>
+      </c>
+      <c r="D157" t="n">
         <v>1</v>
       </c>
-      <c r="C157" t="n">
-        <v>0.9766048784928948</v>
-      </c>
-      <c r="D157" t="n">
-        <v>0.08581189469061323</v>
-      </c>
       <c r="E157" t="n">
-        <v>0.4397956683540207</v>
-      </c>
-      <c r="F157" t="n">
-        <v>0.09749115872685668</v>
+        <v>0.741723331035486</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Thiethylperazine_2B06</t>
-        </is>
-      </c>
-      <c r="B158" s="1" t="n">
-        <v>1</v>
+          <t>Valproic Acid_1D08</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0.6191561393086735</v>
       </c>
       <c r="C158" t="n">
-        <v>0.06560337313386197</v>
+        <v>0.4195635428594955</v>
       </c>
       <c r="D158" t="n">
-        <v>0.1923556469255756</v>
+        <v>0.6003076862568608</v>
       </c>
       <c r="E158" t="n">
-        <v>0.8809755925114653</v>
-      </c>
-      <c r="F158" t="n">
-        <v>0.2907470178973746</v>
+        <v>0.1159797091578824</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Tigecycline_1C11</t>
-        </is>
-      </c>
-      <c r="B159" s="1" t="n">
-        <v>1</v>
+          <t>Valsartan_1F02</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>0.7660487342179748</v>
       </c>
       <c r="C159" t="n">
-        <v>0.6313792835782409</v>
+        <v>0.1626098217402565</v>
       </c>
       <c r="D159" t="n">
-        <v>0.2632590389305653</v>
+        <v>0.179533574316183</v>
       </c>
       <c r="E159" t="n">
-        <v>0.0428645679326449</v>
-      </c>
-      <c r="F159" t="n">
-        <v>0.8985848251722703</v>
+        <v>0.2828183732531558</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Tioguanine_1C08</t>
-        </is>
-      </c>
-      <c r="B160" s="1" t="n">
-        <v>1</v>
+          <t>Veliparib_2G02</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>0.9266533835621633</v>
       </c>
       <c r="C160" t="n">
-        <v>0.9653168201675238</v>
+        <v>0.6100933959326744</v>
       </c>
       <c r="D160" t="n">
-        <v>0.01219322853180701</v>
+        <v>0.0756890431763302</v>
       </c>
       <c r="E160" t="n">
-        <v>0.1297141259088941</v>
-      </c>
-      <c r="F160" t="n">
-        <v>0.1446790757206655</v>
+        <v>0.3826038008296723</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Tizoxanide_1D07</t>
-        </is>
-      </c>
-      <c r="B161" s="1" t="n">
-        <v>1</v>
+          <t>Verapamil_1B08</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>0.6291359424413356</v>
       </c>
       <c r="C161" t="n">
-        <v>0.04159570507835152</v>
+        <v>0.5509849875850934</v>
       </c>
       <c r="D161" t="n">
-        <v>0.4360641754459801</v>
+        <v>0.2104977000553373</v>
       </c>
       <c r="E161" t="n">
-        <v>0.5056870156829876</v>
-      </c>
-      <c r="F161" t="n">
-        <v>0.8762132735307269</v>
+        <v>0.6763863260009093</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>Tomivosertib_1C09</t>
-        </is>
-      </c>
-      <c r="B162" s="1" t="n">
-        <v>1</v>
+          <t>Vidofludimus_1D11</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>0.3003438538299911</v>
       </c>
       <c r="C162" t="n">
-        <v>0.9538695788113046</v>
+        <v>0.4701638333603525</v>
       </c>
       <c r="D162" t="n">
-        <v>0.007441008771008368</v>
+        <v>0.9887015107409153</v>
       </c>
       <c r="E162" t="n">
-        <v>0.05237227024583998</v>
-      </c>
-      <c r="F162" t="n">
-        <v>0.09755173387356976</v>
+        <v>0.7878838478067034</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>Toremifene_2A04</t>
-        </is>
-      </c>
-      <c r="B163" s="1" t="n">
-        <v>1</v>
+          <t>ZINC4326719_2E07</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>0.4430012268204861</v>
       </c>
       <c r="C163" t="n">
-        <v>0.8777965266594532</v>
+        <v>0.4523006345593503</v>
       </c>
       <c r="D163" t="n">
-        <v>0.6100933959326744</v>
+        <v>0.3826038008296723</v>
       </c>
       <c r="E163" t="n">
-        <v>0.2381412727354307</v>
-      </c>
-      <c r="F163" t="n">
-        <v>0.928439054701001</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="inlineStr">
-        <is>
-          <t>Triparanol_1E07</t>
-        </is>
-      </c>
-      <c r="B164" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C164" t="n">
-        <v>0.181018981018981</v>
-      </c>
-      <c r="D164" t="n">
-        <v>0.6744503828211919</v>
-      </c>
-      <c r="E164" t="n">
-        <v>0.3276723276723276</v>
-      </c>
-      <c r="F164" t="n">
-        <v>0.7756243756243756</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="inlineStr">
-        <is>
-          <t>Umifenovir_2E02</t>
-        </is>
-      </c>
-      <c r="B165" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C165" t="n">
-        <v>0.7470898205252594</v>
-      </c>
-      <c r="D165" t="n">
-        <v>0.5583865382008069</v>
-      </c>
-      <c r="E165" t="n">
-        <v>0.4813209172991986</v>
-      </c>
-      <c r="F165" t="n">
-        <v>0.2881280780154699</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="inlineStr">
-        <is>
-          <t>Valdecoxib_2G10</t>
-        </is>
-      </c>
-      <c r="B166" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C166" t="n">
-        <v>0.782695897504828</v>
-      </c>
-      <c r="D166" t="n">
-        <v>0.6967970185092274</v>
-      </c>
-      <c r="E166" t="n">
-        <v>1</v>
-      </c>
-      <c r="F166" t="n">
-        <v>0.741723331035486</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="inlineStr">
-        <is>
-          <t>Valproic Acid_1D08</t>
-        </is>
-      </c>
-      <c r="B167" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C167" t="n">
-        <v>0.6191561393086735</v>
-      </c>
-      <c r="D167" t="n">
-        <v>0.4195635428594955</v>
-      </c>
-      <c r="E167" t="n">
-        <v>0.6003076862568608</v>
-      </c>
-      <c r="F167" t="n">
-        <v>0.1159797091578824</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="inlineStr">
-        <is>
-          <t>Valsartan_1F02</t>
-        </is>
-      </c>
-      <c r="B168" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C168" t="n">
-        <v>0.7660487342179748</v>
-      </c>
-      <c r="D168" t="n">
-        <v>0.1626098217402565</v>
-      </c>
-      <c r="E168" t="n">
-        <v>0.179533574316183</v>
-      </c>
-      <c r="F168" t="n">
-        <v>0.2828183732531558</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="inlineStr">
-        <is>
-          <t>Veliparib_2G02</t>
-        </is>
-      </c>
-      <c r="B169" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C169" t="n">
-        <v>0.9266533835621633</v>
-      </c>
-      <c r="D169" t="n">
-        <v>0.6100933959326744</v>
-      </c>
-      <c r="E169" t="n">
-        <v>0.0756890431763302</v>
-      </c>
-      <c r="F169" t="n">
-        <v>0.3826038008296723</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="inlineStr">
-        <is>
-          <t>Verapamil_1B08</t>
-        </is>
-      </c>
-      <c r="B170" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C170" t="n">
-        <v>0.6291359424413356</v>
-      </c>
-      <c r="D170" t="n">
-        <v>0.5509849875850934</v>
-      </c>
-      <c r="E170" t="n">
-        <v>0.2104977000553373</v>
-      </c>
-      <c r="F170" t="n">
-        <v>0.6763863260009093</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="inlineStr">
-        <is>
-          <t>Vidofludimus_1D11</t>
-        </is>
-      </c>
-      <c r="B171" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C171" t="n">
-        <v>0.3003438538299911</v>
-      </c>
-      <c r="D171" t="n">
-        <v>0.4701638333603525</v>
-      </c>
-      <c r="E171" t="n">
-        <v>0.9887015107409153</v>
-      </c>
-      <c r="F171" t="n">
-        <v>0.7878838478067034</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="inlineStr">
-        <is>
-          <t>ZINC4326719_2E07</t>
-        </is>
-      </c>
-      <c r="B172" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C172" t="n">
-        <v>0.4430012268204861</v>
-      </c>
-      <c r="D172" t="n">
-        <v>0.4523006345593503</v>
-      </c>
-      <c r="E172" t="n">
-        <v>0.3826038008296723</v>
-      </c>
-      <c r="F172" t="n">
         <v>0.319629190002053</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="A154:A155"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Data/2022-08-08_Behavior_Assay_pvalues.xlsx
+++ b/Data/2022-08-08_Behavior_Assay_pvalues.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -425,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E163"/>
+  <dimension ref="A1:F173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,22 +455,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Moving [s]|Accomodation</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Velocity [mm/s]|Light</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Velocity [mm/s]|Dark</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Velocity|Ratio Light/Dark</t>
         </is>
@@ -461,16 +482,19 @@
           <t>(+)-Mefloquine_2C11</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
         <v>0.7360429527125133</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.4793736799483984</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.8809755925114653</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.5283308247368013</v>
       </c>
     </row>
@@ -480,16 +504,19 @@
           <t>(-)-Anisomycin_2F06</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>0.6674898195164503</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.1358286050707642</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.6967970185092274</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.02737565451255046</v>
       </c>
     </row>
@@ -499,16 +526,19 @@
           <t>(RS)-PPCC_2E05</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
         <v>0.05368213533026459</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.2635644369390499</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.2143932255656579</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.568560827007455</v>
       </c>
     </row>
@@ -518,16 +548,19 @@
           <t>ABT 239_1F10</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
         <v>0.05231592667370894</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.008013401861836703</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0.006604090866153538</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.1059276988460962</v>
       </c>
     </row>
@@ -537,16 +570,19 @@
           <t>AZ3451_2E06</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
         <v>0.7360429527125133</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0.2907470178973746</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0.976103748482265</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.2635644369390499</v>
       </c>
     </row>
@@ -556,16 +592,19 @@
           <t>Abacavir_2H07</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
         <v>0.4523006345593503</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>0.976103748482265</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0.2635644369390499</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.7874627279661603</v>
       </c>
     </row>
@@ -575,16 +614,19 @@
           <t>Abemaciclib_1G11</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
         <v>0.8583454039016009</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>0.72181655516881</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.4688039818474602</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.8616665138404269</v>
       </c>
     </row>
@@ -594,16 +636,19 @@
           <t>Almitrine_1G04</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
         <v>3.864189006425355e-05</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>4.202068059493571e-06</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>2.53857682534057e-05</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>6.882946959622974e-05</v>
       </c>
     </row>
@@ -613,16 +658,19 @@
           <t>Amiodarone_1F03</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
         <v>0.1998835525662286</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>0.001773477478006288</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>0.02231068793535783</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.01030935197276377</v>
       </c>
     </row>
@@ -632,16 +680,19 @@
           <t>Amodiaquine_1D03</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
         <v>0.01501486635242819</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0.5239644026306487</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>0.2179455072952519</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.4360641754459801</v>
       </c>
     </row>
@@ -651,16 +702,19 @@
           <t>Amuvatinib_1E04</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
         <v>0.02557442557442557</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>0.2076174111548459</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.7756243756243756</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.1134865134865135</v>
       </c>
     </row>
@@ -670,16 +724,19 @@
           <t>Anagliptin_2E10</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
         <v>0.01978215943911123</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>0.2366986566676402</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>0.02253860096811164</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.4716935276020146</v>
       </c>
     </row>
@@ -689,16 +746,19 @@
           <t>Anidulafungin_2B03</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
         <v>0.005134239926438707</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>0.04482297738456037</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>0.02297031426120133</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.09260188369085934</v>
       </c>
     </row>
@@ -708,16 +768,19 @@
           <t>Apilimod_1B03</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C15" t="n">
         <v>0.2568468115893779</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>0.01833642712834768</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>0.03242819907243114</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.01590545378403771</v>
       </c>
     </row>
@@ -727,16 +790,19 @@
           <t>Apixaban_2H09</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
         <v>0.1056384276198518</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>0.741723331035486</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>0.4895774272540997</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.6100933959326744</v>
       </c>
     </row>
@@ -746,16 +812,19 @@
           <t>Apremilast_2F05</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
         <v>0.2693006711568013</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>0.652906776745786</v>
       </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
       <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
         <v>0.652906776745786</v>
       </c>
     </row>
@@ -765,16 +834,19 @@
           <t>Aprepitant_2F03</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
         <v>0.4614571019452185</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>0.2381412727354307</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>0.928439054701001</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.1719279210193196</v>
       </c>
     </row>
@@ -784,2756 +856,3381 @@
           <t>Astemizole_1D04</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>4.354355970369297e-05</v>
+      <c r="B19" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4099463291987281</v>
+        <v>2.660354137044241e-05</v>
       </c>
       <c r="D19" t="n">
-        <v>2.356964272047478e-07</v>
+        <v>0.4314748224780431</v>
       </c>
       <c r="E19" t="n">
-        <v>9.423506466297356e-08</v>
+        <v>2.529623551949019e-08</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3.592830166055743e-08</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Atazanavir_1B10</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.5492433274240123</v>
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2572389851810263</v>
+        <v>0.9280971578963219</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6763863260009093</v>
+        <v>0.003196917894919829</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1210598199790996</v>
+        <v>0.06607896799618297</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.5421666453913343</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Baricitinib_2C09</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.18217212408731</v>
+          <t>Atazanavir_1B10</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0.814457524575031</v>
+        <v>0.5492433274240123</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5954449847278814</v>
+        <v>0.2572389851810263</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6135155783392277</v>
+        <v>0.6763863260009093</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.1210598199790996</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Bemcentinib_1A04</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.5506382605323642</v>
+          <t>Baricitinib_2C09</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1210598199790996</v>
+        <v>0.18217212408731</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5915050369949164</v>
+        <v>0.814457524575031</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01449454855107082</v>
+        <v>0.5954449847278814</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.6135155783392277</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Benztropine_1G02</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.1487329300586518</v>
+          <t>Bemcentinib_1A04</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8504180630785465</v>
+        <v>0.5506382605323642</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2115838947977858</v>
+        <v>0.1210598199790996</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5877391489586028</v>
+        <v>0.5915050369949164</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.01449454855107082</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Berbamine_2A09</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.781251455873101</v>
+          <t>Benztropine_1G02</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1719279210193196</v>
+        <v>0.1487329300586518</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1719279210193196</v>
+        <v>0.8504180630785465</v>
       </c>
       <c r="E24" t="n">
-        <v>0.09260188369085934</v>
+        <v>0.2115838947977858</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.5877391489586028</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Boceprevir_2G09</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.8765411301968662</v>
+          <t>Berbamine_2A09</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9231560363772932</v>
+        <v>0.781251455873101</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4034380517489498</v>
+        <v>0.1719279210193196</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9144579851508905</v>
+        <v>0.1719279210193196</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.09260188369085934</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Bortezomib_2G06</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.9267490123683101</v>
+          <t>Boceprevir_2G09</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2907470178973746</v>
+        <v>0.8765411301968662</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1719279210193196</v>
+        <v>0.9231560363772932</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3502789368989395</v>
+        <v>0.4034380517489498</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9144579851508905</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Brequinar_2H03</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.7418788559147742</v>
+          <t>Bortezomib_2G06</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0.04949812003837783</v>
+        <v>0.9267490123683101</v>
       </c>
       <c r="D27" t="n">
-        <v>0.03697985447049208</v>
+        <v>0.2907470178973746</v>
       </c>
       <c r="E27" t="n">
-        <v>0.06912316778747638</v>
+        <v>0.1719279210193196</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.3502789368989395</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Cabozantinib_2G04</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>2.681102300277411e-05</v>
+          <t>Brequinar_2H03</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0001713844467453577</v>
+        <v>0.7418788559147742</v>
       </c>
       <c r="D28" t="n">
-        <v>1.962509529265145e-05</v>
+        <v>0.04949812003837783</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4994314931941632</v>
+        <v>0.03697985447049208</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.06912316778747638</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Camostat_1E10</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0.04955044955044956</v>
+          <t>Cabozantinib_2G04</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1135789078463774</v>
+        <v>2.681102300277411e-05</v>
       </c>
       <c r="D29" t="n">
-        <v>0.606993006993007</v>
+        <v>0.0001713844467453577</v>
       </c>
       <c r="E29" t="n">
-        <v>0.03596403596403597</v>
+        <v>1.962509529265145e-05</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.4994314931941632</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Captopril_1F07</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0.2061766403964775</v>
+          <t>Camostat_1E10</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1976581872234046</v>
+        <v>0.04955044955044956</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6964341294776076</v>
+        <v>0.1135789078463774</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2376703489746968</v>
+        <v>0.606993006993007</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.03596403596403597</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Celecoxib_2G03</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.7362088086200227</v>
+          <t>Captopril_1F07</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0.09817524359008377</v>
+        <v>0.2061766403964775</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2907470178973746</v>
+        <v>0.1976581872234046</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2143932255656579</v>
+        <v>0.6964341294776076</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.2376703489746968</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Chlormidazole_2C05</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.8539252702830225</v>
+          <t>Celecoxib_2G03</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4435977426358269</v>
+        <v>0.7362088086200227</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4523006345593503</v>
+        <v>0.09817524359008377</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4895774272540997</v>
+        <v>0.2907470178973746</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.2143932255656579</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Chlorothiazide_2H08</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0.7874627279661603</v>
+          <t>Chlormidazole_2C05</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3826038008296723</v>
+        <v>0.8539252702830225</v>
       </c>
       <c r="D33" t="n">
-        <v>0.976103748482265</v>
+        <v>0.4435977426358269</v>
       </c>
       <c r="E33" t="n">
-        <v>0.568560827007455</v>
+        <v>0.4523006345593503</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.4895774272540997</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Chlorpromazine_1B02</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0.2787770935962406</v>
+          <t>Chlorothiazide_2H08</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>0.6333423006990662</v>
+        <v>0.7874627279661603</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9050717819787818</v>
+        <v>0.3826038008296723</v>
       </c>
       <c r="E34" t="n">
-        <v>0.8114825221108789</v>
+        <v>0.976103748482265</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.568560827007455</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Ciclesonide_1A08</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0.5109598545172472</v>
+          <t>Chlorpromazine_1B02</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2104977000553373</v>
+        <v>0.2787770935962406</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2831308706623467</v>
+        <v>0.6333423006990662</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1074046363302537</v>
+        <v>0.9050717819787818</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.8114825221108789</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Clemastine_2D07</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0.6677624571700782</v>
+          <t>Ciclesonide_1A08</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>0.928439054701001</v>
+        <v>0.5109598545172472</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6100933959326744</v>
+        <v>0.2104977000553373</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8809755925114653</v>
+        <v>0.2831308706623467</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.1074046363302537</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Clomipramine_1E08</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0.4559440559440558</v>
+          <t>Clemastine_2D07</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01057158882833039</v>
+        <v>0.6677624571700782</v>
       </c>
       <c r="D37" t="n">
-        <v>0.04955044955044956</v>
+        <v>0.928439054701001</v>
       </c>
       <c r="E37" t="n">
-        <v>0.004795204795204795</v>
+        <v>0.6100933959326744</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.8809755925114653</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Cloperastine_2D06</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0.07505272015740079</v>
+          <t>Clomipramine_1E08</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2205709979552172</v>
+        <v>0.4559440559440558</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2635644369390499</v>
+        <v>0.01057158882833039</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5283308247368013</v>
+        <v>0.04955044955044956</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.004795204795204795</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Control</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
+          <t>Cloperastine_2D06</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0.07505272015740079</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0.2205709979552172</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0.2635644369390499</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.5283308247368013</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Cycloheximide_2D11</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.1183140721655378</v>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>0.976103748482265</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>0.741723331035486</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6967970185092274</v>
+        <v>1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Cyclosporine_1F04</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0.3093950134078763</v>
+          <t>Cycloheximide_2D11</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1516933101703259</v>
+        <v>0.1183140721655378</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7958795465215174</v>
+        <v>0.976103748482265</v>
       </c>
       <c r="E41" t="n">
-        <v>0.3652578484486141</v>
+        <v>0.741723331035486</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.6967970185092274</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Dabrafenib_2B08</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0.08067532616967289</v>
+          <t>Cyclosporine_1F04</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1923556469255756</v>
+        <v>0.3093950134078763</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5283308247368013</v>
+        <v>0.1516933101703259</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2907470178973746</v>
+        <v>0.7958795465215174</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.3652578484486141</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Daclatasvir_1C04</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>0.3502344895432362</v>
+          <t>Dabrafenib_2B08</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1034150100713144</v>
+        <v>0.08067532616967289</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3146883473704422</v>
+        <v>0.1923556469255756</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1370390825091377</v>
+        <v>0.5283308247368013</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.2907470178973746</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Danusertib_2F04</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>0.6023878202011386</v>
+          <t>Daclatasvir_1C04</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0.568560827007455</v>
+        <v>0.3502344895432362</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0.1034150100713144</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6100933959326744</v>
+        <v>0.3146883473704422</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.1370390825091377</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Dapivirine_2B09</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>0.001793970502517159</v>
+          <t>Danusertib_2F04</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0.7197591747329263</v>
+        <v>0.6023878202011386</v>
       </c>
       <c r="D45" t="n">
-        <v>0.07624501849835004</v>
+        <v>0.568560827007455</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9739962554607864</v>
+        <v>1</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.6100933959326744</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Darifenacin_2F08</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>0.2089504935840925</v>
+          <t>Dapivirine_2B09</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5283308247368013</v>
+        <v>0.001793970502517159</v>
       </c>
       <c r="D46" t="n">
-        <v>0.833960822384567</v>
+        <v>0.7197591747329263</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4523006345593503</v>
+        <v>0.07624501849835004</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.9739962554607864</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Darunavir_2H02</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>0.90250215847754</v>
+          <t>Darifenacin_2F08</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1923556469255756</v>
+        <v>0.2089504935840925</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1200400831575956</v>
+        <v>0.5283308247368013</v>
       </c>
       <c r="E47" t="n">
+        <v>0.833960822384567</v>
+      </c>
+      <c r="F47" t="n">
         <v>0.4523006345593503</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Delanzomib_2H04</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>0.04482297738456037</v>
+          <t>Darunavir_2H02</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C48" t="n">
+        <v>0.90250215847754</v>
+      </c>
+      <c r="D48" t="n">
         <v>0.1923556469255756</v>
       </c>
-      <c r="D48" t="n">
-        <v>0.04482297738456037</v>
-      </c>
       <c r="E48" t="n">
-        <v>0.568560827007455</v>
+        <v>0.1200400831575956</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.4523006345593503</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Delavirdine_2H05</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>0.09189398004976111</v>
+          <t>Delanzomib_2H04</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>0.976103748482265</v>
+        <v>0.04482297738456037</v>
       </c>
       <c r="D49" t="n">
-        <v>0.06074474724360308</v>
+        <v>0.1923556469255756</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4166500106734323</v>
+        <v>0.04482297738456037</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.568560827007455</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Desmethyl ferroquine_2E11</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>0.3741572555061313</v>
+          <t>Delavirdine_2H05</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>0.4895774272540997</v>
+        <v>0.09189398004976111</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2635644369390499</v>
+        <v>0.976103748482265</v>
       </c>
       <c r="E50" t="n">
-        <v>0.652906776745786</v>
+        <v>0.06074474724360308</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.4166500106734323</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Digitoxin_2C04</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0.002832591585474688</v>
+          <t>Desmethyl ferroquine_2E11</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>0.002535648081549435</v>
+        <v>0.3741572555061313</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0001101806037664278</v>
+        <v>0.4895774272540997</v>
       </c>
       <c r="E51" t="n">
-        <v>0.299785340903889</v>
+        <v>0.2635644369390499</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.652906776745786</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Digoxin_1D02</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0.3325944167708704</v>
+          <t>Digitoxin_2C04</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9435528345955494</v>
+        <v>0.002832591585474688</v>
       </c>
       <c r="D52" t="n">
-        <v>0.921037270243004</v>
+        <v>0.002535648081549435</v>
       </c>
       <c r="E52" t="n">
-        <v>0.7446485590752736</v>
+        <v>0.0001101806037664278</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.299785340903889</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Doravirine_2D10</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0.2314115479184654</v>
+          <t>Digoxin_1D02</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>0.6967970185092274</v>
+        <v>0.3325944167708704</v>
       </c>
       <c r="D53" t="n">
-        <v>0.928439054701001</v>
+        <v>0.9435528345955494</v>
       </c>
       <c r="E53" t="n">
-        <v>0.833960822384567</v>
+        <v>0.921037270243004</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.7446485590752736</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Doxorubicin_2A05</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0.2994445240926058</v>
+          <t>Doravirine_2D10</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9513641829362991</v>
+        <v>0.2314115479184654</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1535067357934728</v>
+        <v>0.6967970185092274</v>
       </c>
       <c r="E54" t="n">
-        <v>0.8932552905563226</v>
+        <v>0.928439054701001</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.833960822384567</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Doxycycline_1E05</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9546453546453546</v>
+          <t>Doxorubicin_2A05</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4420221899269482</v>
+        <v>0.2994445240926058</v>
       </c>
       <c r="D55" t="n">
-        <v>0.7756243756243756</v>
+        <v>0.9513641829362991</v>
       </c>
       <c r="E55" t="n">
-        <v>0.3276723276723276</v>
+        <v>0.1535067357934728</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.8932552905563226</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Drotaverine_1B07</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>0.856286128820941</v>
+          <t>Doxycycline_1E05</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>0.8580276569875211</v>
+        <v>0.9546453546453546</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5509849875850934</v>
+        <v>0.4420221899269482</v>
       </c>
       <c r="E56" t="n">
-        <v>0.5118799273370487</v>
+        <v>0.7756243756243756</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.3276723276723276</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Dutacatib_2C07</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>0.125704156818013</v>
+          <t>Drotaverine_1B07</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>0.7351530767075722</v>
+        <v>0.856286128820941</v>
       </c>
       <c r="D57" t="n">
-        <v>0.2635644369390499</v>
+        <v>0.8580276569875211</v>
       </c>
       <c r="E57" t="n">
-        <v>0.928439054701001</v>
+        <v>0.5509849875850934</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.5118799273370487</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>E 52862_2D09</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>0.8782197335832028</v>
+          <t>Dutacatib_2C07</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>0.3826038008296723</v>
+        <v>0.125704156818013</v>
       </c>
       <c r="D58" t="n">
-        <v>0.8809755925114653</v>
+        <v>0.7351530767075722</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3826038008296723</v>
+        <v>0.2635644369390499</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.928439054701001</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Emetine_1E06</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>0.01758241758241758</v>
+          <t>E 52862_2D09</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1531195258848909</v>
+        <v>0.8782197335832028</v>
       </c>
       <c r="D59" t="n">
-        <v>0.2721278721278721</v>
+        <v>0.3826038008296723</v>
       </c>
       <c r="E59" t="n">
-        <v>0.08791208791208792</v>
+        <v>0.8809755925114653</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.3826038008296723</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Entacapone_2B05</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>0.3118755991640484</v>
+          <t>Emetine_1E06</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3502789368989395</v>
+        <v>0.01758241758241758</v>
       </c>
       <c r="D60" t="n">
-        <v>0.833960822384567</v>
+        <v>0.1531195258848909</v>
       </c>
       <c r="E60" t="n">
-        <v>0.2381412727354307</v>
+        <v>0.2721278721278721</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.08791208791208792</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Eszopiclone_2C10</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0.7132435844105915</v>
+          <t>Entacapone_2B05</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>0.8060823033055363</v>
+        <v>0.3118755991640484</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4166500106734323</v>
+        <v>0.3502789368989395</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4895774272540997</v>
+        <v>0.833960822384567</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.2381412727354307</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Ethaverine_1A10</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>0.7199308706847987</v>
+          <t>Eszopiclone_2C10</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8114825221108789</v>
+        <v>0.7132435844105915</v>
       </c>
       <c r="D62" t="n">
-        <v>0.03688842570704982</v>
+        <v>0.8060823033055363</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5509849875850934</v>
+        <v>0.4166500106734323</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.4895774272540997</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Favipiravir_1D10</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>0.3367988913212902</v>
+          <t>Ethaverine_1A10</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6209730503275505</v>
+        <v>0.7199308706847987</v>
       </c>
       <c r="D63" t="n">
-        <v>0.318982614736427</v>
+        <v>0.8114825221108789</v>
       </c>
       <c r="E63" t="n">
-        <v>0.5786690889292101</v>
+        <v>0.03688842570704982</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.5509849875850934</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Ferroquine_1G09</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>0.979658337046528</v>
+          <t>Favipiravir_1D10</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>0.7992571448145382</v>
+        <v>0.3367988913212902</v>
       </c>
       <c r="D64" t="n">
-        <v>0.746092554788207</v>
+        <v>0.6209730503275505</v>
       </c>
       <c r="E64" t="n">
-        <v>0.6718260805217328</v>
+        <v>0.318982614736427</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.5786690889292101</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Fluconazole_2A11</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>0.08622708125090112</v>
+          <t>Ferroquine_1G09</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>0.976103748482265</v>
+        <v>0.979658337046528</v>
       </c>
       <c r="D65" t="n">
-        <v>0.02297031426120133</v>
+        <v>0.7992571448145382</v>
       </c>
       <c r="E65" t="n">
-        <v>0.652906776745786</v>
+        <v>0.746092554788207</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.6718260805217328</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Fluphenazine_1H06</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>0.5235473544614747</v>
+          <t>Fluconazole_2A11</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>0.4551233155352149</v>
+        <v>0.08622708125090112</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1297008991517001</v>
+        <v>0.976103748482265</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8041571319603358</v>
+        <v>0.02297031426120133</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.652906776745786</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Fluspirilene_2A02</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>0.4269113576750224</v>
+          <t>Fluphenazine_1H06</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>0.4421775368215491</v>
+        <v>0.5235473544614747</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7053107887380101</v>
+        <v>0.4551233155352149</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6694111706224701</v>
+        <v>0.1297008991517001</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.8041571319603358</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>GSK 983_1C07</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
+          <t>Fluspirilene_2A02</t>
+        </is>
+      </c>
+      <c r="B68" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>0.01803533223813768</v>
+        <v>0.4269113576750224</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9661135927592956</v>
+        <v>0.4421775368215491</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0428645679326449</v>
+        <v>0.7053107887380101</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.6694111706224701</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>GSK-369796_1C03</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>0.6250536437984548</v>
+          <t>GSK 983_1C07</t>
+        </is>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>0.06773393436481338</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>0.3427279461054317</v>
+        <v>0.01803533223813768</v>
       </c>
       <c r="E69" t="n">
-        <v>0.2882006306572232</v>
+        <v>0.9661135927592956</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.0428645679326449</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Halofantrine_1D05</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>0.02589375248337691</v>
+          <t>GSK-369796_1C03</t>
+        </is>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>0.01669598331229579</v>
+        <v>0.6250536437984548</v>
       </c>
       <c r="D70" t="n">
-        <v>0.001441391304063404</v>
+        <v>0.06773393436481338</v>
       </c>
       <c r="E70" t="n">
-        <v>0.4034358268327601</v>
+        <v>0.3427279461054317</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.2882006306572232</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Haloperidol_1H07</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>0.3931346825806799</v>
+          <t>Halofantrine_1D05</t>
+        </is>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>0.3744169382613318</v>
+        <v>0.02589375248337691</v>
       </c>
       <c r="D71" t="n">
-        <v>0.7108281903705245</v>
+        <v>0.01669598331229579</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1747340683725123</v>
+        <v>0.001441391304063404</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.4034358268327601</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Hanfangchin B_2B04</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>0.07961927939442222</v>
+          <t>Haloperidol_1H07</t>
+        </is>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>0.08080808080808081</v>
+        <v>0.3931346825806799</v>
       </c>
       <c r="D72" t="n">
-        <v>0.3502789368989395</v>
+        <v>0.3744169382613318</v>
       </c>
       <c r="E72" t="n">
-        <v>0.01917682682253957</v>
+        <v>0.7108281903705245</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.1747340683725123</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Hydroxychloroquine_1F11</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>0.8949149194881256</v>
+          <t>Hanfangchin B_2B04</t>
+        </is>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>0.7344528284418692</v>
+        <v>0.07961927939442222</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4502417887297586</v>
+        <v>0.08080808080808081</v>
       </c>
       <c r="E73" t="n">
-        <v>0.5768086443196911</v>
+        <v>0.3502789368989395</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.01917682682253957</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Hydroxyprogesterone_1E02</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>0.6889110889110889</v>
+          <t>Hydroxychloroquine_1F11</t>
+        </is>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>0.3680655063054846</v>
+        <v>0.8949149194881256</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4559440559440558</v>
+        <v>0.7344528284418692</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2721278721278721</v>
+        <v>0.4502417887297586</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.5768086443196911</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Idelalisib_2F07</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>0.4996256761230859</v>
+          <t>Hydroxyprogesterone_1E02</t>
+        </is>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>0.741723331035486</v>
+        <v>0.6889110889110889</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6967970185092274</v>
+        <v>0.3680655063054846</v>
       </c>
       <c r="E75" t="n">
-        <v>0.833960822384567</v>
+        <v>0.4559440559440558</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.2721278721278721</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Imatinib_1H05</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>0.7909957097165785</v>
+          <t>Idelalisib_2F07</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9318909923028919</v>
+        <v>0.4996256761230859</v>
       </c>
       <c r="D76" t="n">
-        <v>0.7538228971638583</v>
+        <v>0.741723331035486</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4063444513787763</v>
+        <v>0.6967970185092274</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.833960822384567</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Indinavir_2H06</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
+          <t>Imatinib_1H05</t>
+        </is>
+      </c>
+      <c r="B77" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4166500106734323</v>
+        <v>0.7909957097165785</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6100933959326744</v>
+        <v>0.9318909923028919</v>
       </c>
       <c r="E77" t="n">
-        <v>0.928439054701001</v>
+        <v>0.7538228971638583</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.4063444513787763</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Indomethacin_1F06</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>0.1228829342028369</v>
+          <t>Indinavir_2H06</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1841182491045775</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>0.1045183254786993</v>
+        <v>0.4166500106734323</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5549876883143734</v>
+        <v>0.6100933959326744</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.928439054701001</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Itraconazole_1C06</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>0.2632229386540194</v>
+          <t>Indomethacin_1F06</t>
+        </is>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>0.01320544398720832</v>
+        <v>0.1228829342028369</v>
       </c>
       <c r="D79" t="n">
-        <v>0.1526412659292437</v>
+        <v>0.1841182491045775</v>
       </c>
       <c r="E79" t="n">
-        <v>0.2755372992053938</v>
+        <v>0.1045183254786993</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.5549876883143734</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Ivermectin_1F05</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>0.001355088961772231</v>
+          <t>Itraconazole_1C06</t>
+        </is>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>0.02098535655868255</v>
+        <v>0.2632229386540194</v>
       </c>
       <c r="D80" t="n">
-        <v>2.703033281965671e-07</v>
+        <v>0.01320544398720832</v>
       </c>
       <c r="E80" t="n">
-        <v>1.367158017954786e-07</v>
+        <v>0.1526412659292437</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.2755372992053938</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>JQ 1_2D03</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>0.06066765754047614</v>
+          <t>Ivermectin_1F05</t>
+        </is>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="C81" t="n">
-        <v>0.2445210243216548</v>
+        <v>3.297574821622632e-05</v>
       </c>
       <c r="D81" t="n">
-        <v>0.568560827007455</v>
+        <v>0.03953852133762179</v>
       </c>
       <c r="E81" t="n">
-        <v>0.2635644369390499</v>
+        <v>2.391966409957415e-06</v>
+      </c>
+      <c r="F81" t="n">
+        <v>4.939422982895444e-05</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>Ketoconazole_1B06</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>0.3463996653690125</v>
+      <c r="A82" s="1" t="n"/>
+      <c r="B82" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>0.5915050369949164</v>
+        <v>0.3150828267675855</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>0.1026841156436346</v>
       </c>
       <c r="E82" t="n">
-        <v>0.4742743507673295</v>
+        <v>2.623973839864334e-05</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1.978522621340022e-05</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>LY 2228820_1C10</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>0.1699598834425667</v>
+          <t>JQ 1_2D03</t>
+        </is>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0428645679326449</v>
+        <v>0.06066765754047614</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5807564252665411</v>
+        <v>0.2445210243216548</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1159797091578824</v>
+        <v>0.568560827007455</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.2635644369390499</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Lonafarnib_1C05</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>0.6343640788800242</v>
+          <t>Ketoconazole_1B06</t>
+        </is>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>0.08662342748950824</v>
+        <v>0.3463996653690125</v>
       </c>
       <c r="D84" t="n">
-        <v>0.387685237786081</v>
+        <v>0.5915050369949164</v>
       </c>
       <c r="E84" t="n">
-        <v>0.7446485590752736</v>
+        <v>1</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.4742743507673295</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Lopinavir_1H04</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>0.3769905279251831</v>
+          <t>LY 2228820_1C10</t>
+        </is>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8077987090195856</v>
+        <v>0.1699598834425667</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9722771751108849</v>
+        <v>0.0428645679326449</v>
       </c>
       <c r="E85" t="n">
-        <v>0.8802961970804533</v>
+        <v>0.5807564252665411</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.1159797091578824</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Loratidine_1H09</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>0.4982360297098892</v>
+          <t>Lonafarnib_1C05</t>
+        </is>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>0.5875117305780921</v>
+        <v>0.6343640788800242</v>
       </c>
       <c r="D86" t="n">
-        <v>0.2154099345861359</v>
+        <v>0.08662342748950824</v>
       </c>
       <c r="E86" t="n">
-        <v>0.4746781314287035</v>
+        <v>0.387685237786081</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.7446485590752736</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Losartan_2E08</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>0.9267490123683101</v>
+          <t>Lopinavir_1H04</t>
+        </is>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8809755925114653</v>
+        <v>0.3769905279251831</v>
       </c>
       <c r="D87" t="n">
-        <v>0.6100933959326744</v>
+        <v>0.8077987090195856</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4895774272540997</v>
+        <v>0.9722771751108849</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.8802961970804533</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Lumefantrine_2B02</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>0.01166008051705587</v>
+          <t>Loratidine_1H09</t>
+        </is>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>0.976103748482265</v>
+        <v>0.4982360297098892</v>
       </c>
       <c r="D88" t="n">
-        <v>0.8809755925114653</v>
+        <v>0.5875117305780921</v>
       </c>
       <c r="E88" t="n">
-        <v>0.568560827007455</v>
+        <v>0.2154099345861359</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.4746781314287035</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Lusutrombopag_1A03</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>0.07238594280831903</v>
+          <t>Losartan_2E08</t>
+        </is>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>0.5915050369949164</v>
+        <v>0.9267490123683101</v>
       </c>
       <c r="D89" t="n">
-        <v>0.2572389851810263</v>
+        <v>0.8809755925114653</v>
       </c>
       <c r="E89" t="n">
-        <v>0.4382390755499422</v>
+        <v>0.6100933959326744</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.4895774272540997</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>MK-2206_1G06</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>0.2719199729790919</v>
+          <t>Lumefantrine_2B02</t>
+        </is>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>0.03244954122868887</v>
+        <v>0.01166008051705587</v>
       </c>
       <c r="D90" t="n">
-        <v>0.03752061143365491</v>
+        <v>0.976103748482265</v>
       </c>
       <c r="E90" t="n">
-        <v>0.3542177629134152</v>
+        <v>0.8809755925114653</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.568560827007455</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>MRT 68601_2E03</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>0.3414787726042569</v>
+          <t>Lusutrombopag_1A03</t>
+        </is>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>0.6967970185092274</v>
+        <v>0.07238594280831903</v>
       </c>
       <c r="D91" t="n">
-        <v>0.6967970185092274</v>
+        <v>0.5915050369949164</v>
       </c>
       <c r="E91" t="n">
-        <v>0.7874627279661603</v>
+        <v>0.2572389851810263</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.4382390755499422</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>Manidipine_1G03</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>0.009136501350946982</v>
+          <t>MK-2206_1G06</t>
+        </is>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>0.05655675342403698</v>
+        <v>0.2719199729790919</v>
       </c>
       <c r="D92" t="n">
-        <v>0.001339469145698837</v>
+        <v>0.03244954122868887</v>
       </c>
       <c r="E92" t="n">
-        <v>0.2308613144029583</v>
+        <v>0.03752061143365491</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.3542177629134152</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Merimepodib_2D08</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>0.5606472950656206</v>
+          <t>MRT 68601_2E03</t>
+        </is>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8809755925114653</v>
+        <v>0.3414787726042569</v>
       </c>
       <c r="D93" t="n">
-        <v>0.4895774272540997</v>
+        <v>0.6967970185092274</v>
       </c>
       <c r="E93" t="n">
-        <v>0.6100933959326744</v>
+        <v>0.6967970185092274</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.7874627279661603</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Metformin_2A10</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>0.5184056260702273</v>
+          <t>Manidipine_1G03</t>
+        </is>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>0.05231477515768806</v>
+        <v>0.006207118132014179</v>
       </c>
       <c r="D94" t="n">
-        <v>0.568560827007455</v>
+        <v>0.0704173044375553</v>
       </c>
       <c r="E94" t="n">
-        <v>0.03242819907243114</v>
+        <v>0.0004211677960260651</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.3289086108932378</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="inlineStr">
-        <is>
-          <t>Midostaurin_1G08</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>0.1608468403109343</v>
+      <c r="A95" s="1" t="n"/>
+      <c r="B95" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C95" t="n">
-        <v>0.075131581105843</v>
+        <v>0.8697306455916582</v>
       </c>
       <c r="D95" t="n">
-        <v>0.1116995140150702</v>
+        <v>0.2014889177230471</v>
       </c>
       <c r="E95" t="n">
-        <v>0.1346251559550549</v>
+        <v>0.7916533689167272</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.5419304293824668</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Migalastat_2A08</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>0.03423501174759513</v>
+          <t>Merimepodib_2D08</t>
+        </is>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>0.4166500106734323</v>
+        <v>0.5606472950656206</v>
       </c>
       <c r="D96" t="n">
-        <v>0.04482297738456037</v>
+        <v>0.8809755925114653</v>
       </c>
       <c r="E96" t="n">
-        <v>0.2907470178973746</v>
+        <v>0.4895774272540997</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.6100933959326744</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Molnupiravir</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>0.5990340101915778</v>
+          <t>Metformin_2A10</t>
+        </is>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5907353775226378</v>
+        <v>0.5184056260702273</v>
       </c>
       <c r="D97" t="n">
-        <v>0.8104566987637252</v>
+        <v>0.05231477515768806</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9726678961900564</v>
+        <v>0.568560827007455</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.03242819907243114</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Mycophenolic acid_2B10</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>0.001681088563406427</v>
+          <t>Midostaurin_1G08</t>
+        </is>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>0.6755374319698761</v>
+        <v>0.1337263827001361</v>
       </c>
       <c r="D98" t="n">
-        <v>0.8020922938560414</v>
+        <v>0.08977394532330969</v>
       </c>
       <c r="E98" t="n">
-        <v>0.6936820551941612</v>
+        <v>0.08987803537544031</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.1855008755800271</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="inlineStr">
-        <is>
-          <t>N-Desethylamodiaquine_1A07</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>0.8579053561672981</v>
+      <c r="A99" s="1" t="n"/>
+      <c r="B99" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C99" t="n">
-        <v>0.6333423006990662</v>
+        <v>0.0004360443559850434</v>
       </c>
       <c r="D99" t="n">
-        <v>0.09499904058321343</v>
+        <v>0.01166062182959998</v>
       </c>
       <c r="E99" t="n">
-        <v>0.3107334896289614</v>
+        <v>0.8632508924755635</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.05218432889274812</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>Nafamostat_1E03</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>0.1134865134865135</v>
+          <t>Migalastat_2A08</t>
+        </is>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7674700894710456</v>
+        <v>0.03423501174759513</v>
       </c>
       <c r="D100" t="n">
-        <v>0.06633366633366634</v>
+        <v>0.4166500106734323</v>
       </c>
       <c r="E100" t="n">
-        <v>0.3884115884115883</v>
+        <v>0.04482297738456037</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.2907470178973746</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Naphtoquine_2H10</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>0.07022982551317455</v>
+          <t>Molnupiravir</t>
+        </is>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C101" t="n">
-        <v>0.6967970185092274</v>
+        <v>0.7942759167850013</v>
       </c>
       <c r="D101" t="n">
-        <v>0.3502789368989395</v>
+        <v>0.3804945634224002</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6967970185092274</v>
+        <v>0.8682689480517528</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.6355861222787667</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="inlineStr">
-        <is>
-          <t>Nebivolol_2F02</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>0.09189398004976111</v>
+      <c r="A102" s="1" t="n"/>
+      <c r="B102" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>0.1719279210193196</v>
+        <v>0.5990340101915778</v>
       </c>
       <c r="D102" t="n">
-        <v>0.05231477515768806</v>
+        <v>0.5907353775226378</v>
       </c>
       <c r="E102" t="n">
-        <v>0.2635644369390499</v>
+        <v>0.8104566987637252</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.9726678961900564</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="inlineStr">
-        <is>
-          <t>Nelfinavir_1A09</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>0.473889610263971</v>
+      <c r="A103" s="1" t="n"/>
+      <c r="B103" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="C103" t="n">
-        <v>0.5915050369949164</v>
+        <v>0.6232450817696176</v>
       </c>
       <c r="D103" t="n">
-        <v>0.3400554635028641</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>0.5118799273370487</v>
+        <v>0.73187274419522</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.7752456918402622</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="inlineStr">
-        <is>
-          <t>Niclosamide_1A02</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>0.6023878202011386</v>
+      <c r="A104" s="1" t="n"/>
+      <c r="B104" s="1" t="n">
+        <v>25</v>
       </c>
       <c r="C104" t="n">
-        <v>0.01497032280472838</v>
+        <v>0.6151536049101074</v>
       </c>
       <c r="D104" t="n">
-        <v>0.1358286050707642</v>
+        <v>0.417282772993156</v>
       </c>
       <c r="E104" t="n">
-        <v>0.007064860477163614</v>
+        <v>0.4174362282964021</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.9181318299830692</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Nifedipine_2E09</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>0.6905353622861083</v>
+          <t>Mycophenolic acid_2B10</t>
+        </is>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>0.568560827007455</v>
+        <v>0.001681088563406427</v>
       </c>
       <c r="D105" t="n">
-        <v>0.928439054701001</v>
+        <v>0.6755374319698761</v>
       </c>
       <c r="E105" t="n">
-        <v>0.4523006345593503</v>
+        <v>0.8020922938560414</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.6936820551941612</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Nitazoxanide_1G05</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
+          <t>N-Desethylamodiaquine_1A07</t>
+        </is>
+      </c>
+      <c r="B106" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>0.02192860739483461</v>
+        <v>0.8579053561672981</v>
       </c>
       <c r="D106" t="n">
-        <v>0.1990865816952774</v>
+        <v>0.6333423006990662</v>
       </c>
       <c r="E106" t="n">
-        <v>0.02468449424971164</v>
+        <v>0.09499904058321343</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.3107334896289614</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>ONO 5334_1A05</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>0.8345053075640024</v>
+          <t>Nafamostat_1E03</t>
+        </is>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>0.6333423006990662</v>
+        <v>0.1134865134865135</v>
       </c>
       <c r="D107" t="n">
-        <v>0.8580276569875211</v>
+        <v>0.7674700894710456</v>
       </c>
       <c r="E107" t="n">
-        <v>0.5915050369949164</v>
+        <v>0.06633366633366634</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.3884115884115883</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Osimertinib_2D05</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>0.9755524297158057</v>
+          <t>Naphtoquine_2H10</t>
+        </is>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>0.1056384276198518</v>
+        <v>0.07022982551317455</v>
       </c>
       <c r="D108" t="n">
-        <v>0.1719279210193196</v>
+        <v>0.6967970185092274</v>
       </c>
       <c r="E108" t="n">
-        <v>0.07022982551317455</v>
+        <v>0.3502789368989395</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.6967970185092274</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Oxatomide_2F10</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>0.124963220223634</v>
+          <t>Nebivolol_2F02</t>
+        </is>
+      </c>
+      <c r="B109" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>0.4166500106734323</v>
+        <v>0.09189398004976111</v>
       </c>
       <c r="D109" t="n">
-        <v>0.6967970185092274</v>
+        <v>0.1719279210193196</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4523006345593503</v>
+        <v>0.05231477515768806</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.2635644369390499</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Oxyclozanide_2C03</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>0.04284308315285285</v>
+          <t>Nelfinavir_1A09</t>
+        </is>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>0.006216189804904263</v>
+        <v>0.473889610263971</v>
       </c>
       <c r="D110" t="n">
-        <v>0.1056384276198518</v>
+        <v>0.5915050369949164</v>
       </c>
       <c r="E110" t="n">
-        <v>0.09260188369085934</v>
+        <v>0.3400554635028641</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.5118799273370487</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Ozanimod_1H08</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>0.4656383435801913</v>
+          <t>Niclosamide_1A02</t>
+        </is>
+      </c>
+      <c r="B111" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1747340683725123</v>
+        <v>0.6023878202011386</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5109881422924901</v>
+        <v>0.01497032280472838</v>
       </c>
       <c r="E111" t="n">
-        <v>0.7975332270069113</v>
+        <v>0.1358286050707642</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.007064860477163614</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>PB 28_2C08</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>0.1580888426185505</v>
+          <t>Nifedipine_2E09</t>
+        </is>
+      </c>
+      <c r="B112" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>0.255184388614118</v>
+        <v>0.6905353622861083</v>
       </c>
       <c r="D112" t="n">
-        <v>0.2635644369390499</v>
+        <v>0.568560827007455</v>
       </c>
       <c r="E112" t="n">
-        <v>0.4895774272540997</v>
+        <v>0.928439054701001</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.4523006345593503</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>PD 144418_2E04</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>0.1870112715961035</v>
+          <t>Nitazoxanide_1G05</t>
+        </is>
+      </c>
+      <c r="B113" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>0.2907470178973746</v>
+        <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>0.319629190002053</v>
+        <v>0.02192860739483461</v>
       </c>
       <c r="E113" t="n">
-        <v>0.2907470178973746</v>
+        <v>0.1990865816952774</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.02468449424971164</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Papaverine_1C02</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>0.9539568867207746</v>
+          <t>ONO 5334_1A05</t>
+        </is>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>0.2179455072952519</v>
+        <v>0.8345053075640024</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7446485590752736</v>
+        <v>0.6333423006990662</v>
       </c>
       <c r="E114" t="n">
-        <v>0.2632590389305653</v>
+        <v>0.8580276569875211</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.5915050369949164</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Paroxetine_2G11</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>0.04561697252288059</v>
+          <t>Osimertinib_2D05</t>
+        </is>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5004663483871781</v>
+        <v>0.9755524297158057</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0009436130044556481</v>
+        <v>0.1056384276198518</v>
       </c>
       <c r="E115" t="n">
-        <v>0.6967970185092274</v>
+        <v>0.1719279210193196</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.07022982551317455</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Pevonedistat_1H02</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>0.3964559503347065</v>
+          <t>Oxatomide_2F10</t>
+        </is>
+      </c>
+      <c r="B116" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>0.9772637126412872</v>
+        <v>0.124963220223634</v>
       </c>
       <c r="D116" t="n">
-        <v>0.4746781314287035</v>
+        <v>0.4166500106734323</v>
       </c>
       <c r="E116" t="n">
-        <v>0.2621639738344543</v>
+        <v>0.6967970185092274</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.4523006345593503</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Pexidartanib_1B05</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>0.401776830539974</v>
+          <t>Oxyclozanide_2C03</t>
+        </is>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5915050369949164</v>
+        <v>0.04284308315285285</v>
       </c>
       <c r="D117" t="n">
-        <v>0.8114825221108789</v>
+        <v>0.006216189804904263</v>
       </c>
       <c r="E117" t="n">
-        <v>0.5118799273370487</v>
+        <v>0.1056384276198518</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.09260188369085934</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Pimozide_2G07</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>0.0001658905718858436</v>
+          <t>Ozanimod_1H08</t>
+        </is>
+      </c>
+      <c r="B118" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>0.1573070163663122</v>
+        <v>0.4656383435801913</v>
       </c>
       <c r="D118" t="n">
-        <v>6.864156241230583e-06</v>
+        <v>0.1747340683725123</v>
       </c>
       <c r="E118" t="n">
-        <v>2.821607104631904e-06</v>
+        <v>0.5109881422924901</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.7975332270069113</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Piperaquine_2H11</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>0.4523006345593503</v>
+          <t>PB 28_2C08</t>
+        </is>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>0.2907470178973746</v>
+        <v>0.1580888426185505</v>
       </c>
       <c r="D119" t="n">
-        <v>0.2381412727354307</v>
+        <v>0.255184388614118</v>
       </c>
       <c r="E119" t="n">
-        <v>0.3502789368989395</v>
+        <v>0.2635644369390499</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.4895774272540997</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Ponatinib_2A07</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>0.2070142639610669</v>
+          <t>PD 144418_2E04</t>
+        </is>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0005509423152537261</v>
+        <v>0.1870112715961035</v>
       </c>
       <c r="D120" t="n">
-        <v>6.747629406719359e-06</v>
+        <v>0.2907470178973746</v>
       </c>
       <c r="E120" t="n">
-        <v>0.3351786612537283</v>
+        <v>0.319629190002053</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.2907470178973746</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Posaconazole_1H10</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>0.8357999532871423</v>
+          <t>Papaverine_1C02</t>
+        </is>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>0.7538228971638583</v>
+        <v>0.9539568867207746</v>
       </c>
       <c r="D121" t="n">
-        <v>0.7108281903705245</v>
+        <v>0.2179455072952519</v>
       </c>
       <c r="E121" t="n">
-        <v>0.2878653815038254</v>
+        <v>0.7446485590752736</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.2632590389305653</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Promethazine_2F11</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>0.2196662480247191</v>
+          <t>Paroxetine_2G11</t>
+        </is>
+      </c>
+      <c r="B122" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>0.833960822384567</v>
+        <v>0.04561697252288059</v>
       </c>
       <c r="D122" t="n">
-        <v>0.652906776745786</v>
+        <v>0.5004663483871781</v>
       </c>
       <c r="E122" t="n">
-        <v>0.8809755925114653</v>
+        <v>0.0009436130044556481</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.6967970185092274</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Proscillaridin_2C06</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>0.2693006711568013</v>
+          <t>Pevonedistat_1H02</t>
+        </is>
+      </c>
+      <c r="B123" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>0.08401694504814261</v>
+        <v>0.3964559503347065</v>
       </c>
       <c r="D123" t="n">
-        <v>0.08080808080808081</v>
+        <v>0.9772637126412872</v>
       </c>
       <c r="E123" t="n">
-        <v>0.2381412727354307</v>
+        <v>0.4746781314287035</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.2621639738344543</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Pyronaridine_1H11</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>0.7477232196163134</v>
+          <t>Pexidartanib_1B05</t>
+        </is>
+      </c>
+      <c r="B124" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>0.4746781314287035</v>
+        <v>0.401776830539974</v>
       </c>
       <c r="D124" t="n">
-        <v>0.3439983357603494</v>
+        <v>0.5915050369949164</v>
       </c>
       <c r="E124" t="n">
-        <v>0.5486073550146777</v>
+        <v>0.8114825221108789</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.5118799273370487</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>R 7112_1B09</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>0.854215121346982</v>
+          <t>Pimozide_2G07</t>
+        </is>
+      </c>
+      <c r="B125" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>0.8114825221108789</v>
+        <v>0.0001658905718858436</v>
       </c>
       <c r="D125" t="n">
-        <v>0.9524515354386665</v>
+        <v>0.1573070163663122</v>
       </c>
       <c r="E125" t="n">
-        <v>0.6763863260009093</v>
+        <v>6.864156241230583e-06</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2.821607104631904e-06</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>RVX 208_2D04</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>0.2092477961201755</v>
+          <t>Piperaquine_2H11</t>
+        </is>
+      </c>
+      <c r="B126" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>0.652906776745786</v>
+        <v>0.4523006345593503</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6100933959326744</v>
+        <v>0.2907470178973746</v>
       </c>
       <c r="E126" t="n">
-        <v>0.4523006345593503</v>
+        <v>0.2381412727354307</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.3502789368989395</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Rapamycin_2A06</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>0.2960107438202909</v>
+          <t>Ponatinib_2A07</t>
+        </is>
+      </c>
+      <c r="B127" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>1.111836866377888e-06</v>
+        <v>0.1496112396573779</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0585612332532541</v>
+        <v>0.0006399176150131666</v>
       </c>
       <c r="E127" t="n">
-        <v>0.1836290507711351</v>
+        <v>8.522314152895089e-07</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.2453179726645942</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="inlineStr">
-        <is>
-          <t>Ravuconazole_1D06</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>0.03095742819918245</v>
+      <c r="A128" s="1" t="n"/>
+      <c r="B128" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C128" t="n">
-        <v>0.03249114784660932</v>
+        <v>0.09653034206512165</v>
       </c>
       <c r="D128" t="n">
-        <v>2.947258293740554e-05</v>
+        <v>0.3413625124186542</v>
       </c>
       <c r="E128" t="n">
-        <v>0.009553089144917013</v>
+        <v>0.01231141570696449</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.9108904844226167</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Regorafenib_1B04</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>0.0001250559477593767</v>
+          <t>Posaconazole_1H10</t>
+        </is>
+      </c>
+      <c r="B129" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>0.009896474809089317</v>
+        <v>0.8357999532871423</v>
       </c>
       <c r="D129" t="n">
-        <v>2.016970333626156e-06</v>
+        <v>0.7538228971638583</v>
       </c>
       <c r="E129" t="n">
-        <v>0.1411981935657903</v>
+        <v>0.7108281903705245</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.2878653815038254</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Remdesivir_1A06</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>0.621299167801354</v>
+          <t>Promethazine_2F11</t>
+        </is>
+      </c>
+      <c r="B130" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>0.482915240748893</v>
+        <v>0.2196662480247191</v>
       </c>
       <c r="D130" t="n">
-        <v>0.2954328504393152</v>
+        <v>0.833960822384567</v>
       </c>
       <c r="E130" t="n">
-        <v>0.5141529015202588</v>
+        <v>0.652906776745786</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.8809755925114653</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Ribavirin_1F08</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>0.9320832180672197</v>
+          <t>Proscillaridin_2C06</t>
+        </is>
+      </c>
+      <c r="B131" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>0.5134020975609405</v>
+        <v>0.2693006711568013</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9160495233785464</v>
+        <v>0.08401694504814261</v>
       </c>
       <c r="E131" t="n">
-        <v>0.6128750455078106</v>
+        <v>0.08080808080808081</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.2381412727354307</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>Ritonavir_1A11</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>0.5522835699908166</v>
+          <t>Pyronaridine_1H11</t>
+        </is>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>0.5536169919657805</v>
+        <v>0.7477232196163134</v>
       </c>
       <c r="D132" t="n">
-        <v>0.09251633814697276</v>
+        <v>0.4746781314287035</v>
       </c>
       <c r="E132" t="n">
-        <v>0.1925175724364714</v>
+        <v>0.3439983357603494</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.5486073550146777</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>Ruxolitinib_1B11</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>0.4676652851268758</v>
+          <t>R 7112_1B09</t>
+        </is>
+      </c>
+      <c r="B133" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>0.217917085370308</v>
+        <v>0.854215121346982</v>
       </c>
       <c r="D133" t="n">
-        <v>0.3679232238846956</v>
+        <v>0.8114825221108789</v>
       </c>
       <c r="E133" t="n">
-        <v>0.1294149218111233</v>
+        <v>0.9524515354386665</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.6763863260009093</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>SAX-187_1G10</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>0.2965075417630152</v>
+          <t>RVX 208_2D04</t>
+        </is>
+      </c>
+      <c r="B134" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>0.6005099570316963</v>
+        <v>0.2092477961201755</v>
       </c>
       <c r="D134" t="n">
-        <v>0.9009483270352836</v>
+        <v>0.652906776745786</v>
       </c>
       <c r="E134" t="n">
-        <v>0.5661385313559228</v>
+        <v>0.6100933959326744</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.4523006345593503</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>SMN-C3_1E11</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>0.3884115884115883</v>
+          <t>Rapamycin_2A06</t>
+        </is>
+      </c>
+      <c r="B135" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>0.5521186425697754</v>
+        <v>0.2960107438202909</v>
       </c>
       <c r="D135" t="n">
-        <v>0.5286713286713286</v>
+        <v>1.111836866377888e-06</v>
       </c>
       <c r="E135" t="n">
-        <v>0.3884115884115883</v>
+        <v>0.0585612332532541</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.1836290507711351</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Salinomycin_2D02</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>0.150040574694299</v>
+          <t>Ravuconazole_1D06</t>
+        </is>
+      </c>
+      <c r="B136" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>0.2381412727354307</v>
+        <v>0.03095742819918245</v>
       </c>
       <c r="D136" t="n">
-        <v>0.319629190002053</v>
+        <v>0.03249114784660932</v>
       </c>
       <c r="E136" t="n">
-        <v>0.4166500106734323</v>
+        <v>2.947258293740554e-05</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.009553089144917013</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Selumetinib_2G05</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>0.5606472950656206</v>
+          <t>Regorafenib_1B04</t>
+        </is>
+      </c>
+      <c r="B137" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>0.3911642810877407</v>
+        <v>0.0001250559477593767</v>
       </c>
       <c r="D137" t="n">
-        <v>0.928439054701001</v>
+        <v>0.009896474809089317</v>
       </c>
       <c r="E137" t="n">
-        <v>0.4166500106734323</v>
+        <v>2.016970333626156e-06</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.1411981935657903</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Sertindole_2G08</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>0.4622380192907116</v>
+          <t>Remdesivir_1A06</t>
+        </is>
+      </c>
+      <c r="B138" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>0.06157244419473925</v>
+        <v>0.621299167801354</v>
       </c>
       <c r="D138" t="n">
-        <v>0.7874627279661603</v>
+        <v>0.482915240748893</v>
       </c>
       <c r="E138" t="n">
-        <v>0.05231477515768806</v>
+        <v>0.2954328504393152</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.5141529015202588</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Silmitasertib_2C02</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>0.4809088956582176</v>
+          <t>Ribavirin_1F08</t>
+        </is>
+      </c>
+      <c r="B139" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>0.4224307133383294</v>
+        <v>0.9320832180672197</v>
       </c>
       <c r="D139" t="n">
-        <v>0.741723331035486</v>
+        <v>0.5134020975609405</v>
       </c>
       <c r="E139" t="n">
-        <v>0.4895774272540997</v>
+        <v>0.9160495233785464</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.6128750455078106</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Simeprevir_1D09</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>0.1391274997601011</v>
+          <t>Ritonavir_1A11</t>
+        </is>
+      </c>
+      <c r="B140" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>0.8985848251722703</v>
+        <v>0.5522835699908166</v>
       </c>
       <c r="D140" t="n">
-        <v>0.387685237786081</v>
+        <v>0.5536169919657805</v>
       </c>
       <c r="E140" t="n">
-        <v>0.9661135927592956</v>
+        <v>0.09251633814697276</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.1925175724364714</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Sofosbuvir_1E09</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>0.3884115884115883</v>
+          <t>Ruxolitinib_1B11</t>
+        </is>
+      </c>
+      <c r="B141" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>0.3680655063054846</v>
+        <v>0.4676652851268758</v>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>0.217917085370308</v>
       </c>
       <c r="E141" t="n">
-        <v>0.4559440559440558</v>
+        <v>0.3679232238846956</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.1294149218111233</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Sorafenib_1F09</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>0.6560490709876038</v>
+          <t>SAX-187_1G10</t>
+        </is>
+      </c>
+      <c r="B142" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>1.965520472744231e-05</v>
+        <v>0.2965075417630152</v>
       </c>
       <c r="D142" t="n">
-        <v>0.005901205906274882</v>
+        <v>0.6005099570316963</v>
       </c>
       <c r="E142" t="n">
-        <v>0.6981923705829974</v>
+        <v>0.9009483270352836</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.5661385313559228</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Spectinomycin_2F09</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>0.4793736799483984</v>
+          <t>SMN-C3_1E11</t>
+        </is>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>0.5283308247368013</v>
+        <v>0.3884115884115883</v>
       </c>
       <c r="D143" t="n">
-        <v>0.833960822384567</v>
+        <v>0.5521186425697754</v>
       </c>
       <c r="E143" t="n">
-        <v>0.6967970185092274</v>
+        <v>0.5286713286713286</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.3884115884115883</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Tacrolimus_2B07</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>0.8452466401160982</v>
+          <t>Salinomycin_2D02</t>
+        </is>
+      </c>
+      <c r="B144" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>0.3231042517261287</v>
+        <v>0.150040574694299</v>
       </c>
       <c r="D144" t="n">
-        <v>0.3731927364392489</v>
+        <v>0.2381412727354307</v>
       </c>
       <c r="E144" t="n">
-        <v>0.5830307494472751</v>
+        <v>0.319629190002053</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.4166500106734323</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>Tenofovir_2B11</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>0.1407781939278167</v>
+          <t>Selumetinib_2G05</t>
+        </is>
+      </c>
+      <c r="B145" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>0.8809755925114653</v>
+        <v>0.5606472950656206</v>
       </c>
       <c r="D145" t="n">
-        <v>0.1923556469255756</v>
+        <v>0.3911642810877407</v>
       </c>
       <c r="E145" t="n">
-        <v>0.976103748482265</v>
+        <v>0.928439054701001</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.4166500106734323</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Terconazole_1G07</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>0.09283940723537555</v>
+          <t>Sertindole_2G08</t>
+        </is>
+      </c>
+      <c r="B146" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>0.0100175513957978</v>
+        <v>0.4622380192907116</v>
       </c>
       <c r="D146" t="n">
-        <v>0.5661385313559228</v>
+        <v>0.06157244419473925</v>
       </c>
       <c r="E146" t="n">
-        <v>0.01832627919584441</v>
+        <v>0.7874627279661603</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.05231477515768806</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>Tetracycline_2A03</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>0.9264931665401432</v>
+          <t>Silmitasertib_2C02</t>
+        </is>
+      </c>
+      <c r="B147" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>0.7874627279661603</v>
+        <v>0.4809088956582176</v>
       </c>
       <c r="D147" t="n">
-        <v>0.568560827007455</v>
+        <v>0.4224307133383294</v>
       </c>
       <c r="E147" t="n">
-        <v>0.6967970185092274</v>
+        <v>0.741723331035486</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.4895774272540997</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Tetrandrine_1H03</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>0.9766048784928948</v>
+          <t>Simeprevir_1D09</t>
+        </is>
+      </c>
+      <c r="B148" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>0.08581189469061323</v>
+        <v>0.1391274997601011</v>
       </c>
       <c r="D148" t="n">
-        <v>0.4397956683540207</v>
+        <v>0.8985848251722703</v>
       </c>
       <c r="E148" t="n">
-        <v>0.09749115872685668</v>
+        <v>0.387685237786081</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.9661135927592956</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Thiethylperazine_2B06</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>0.06560337313386197</v>
+          <t>Sofosbuvir_1E09</t>
+        </is>
+      </c>
+      <c r="B149" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>0.1923556469255756</v>
+        <v>0.3884115884115883</v>
       </c>
       <c r="D149" t="n">
-        <v>0.8809755925114653</v>
+        <v>0.3680655063054846</v>
       </c>
       <c r="E149" t="n">
-        <v>0.2907470178973746</v>
+        <v>1</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.4559440559440558</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Tigecycline_1C11</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>0.6313792835782409</v>
+          <t>Sorafenib_1F09</t>
+        </is>
+      </c>
+      <c r="B150" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>0.2632590389305653</v>
+        <v>0.6560490709876038</v>
       </c>
       <c r="D150" t="n">
-        <v>0.0428645679326449</v>
+        <v>1.965520472744231e-05</v>
       </c>
       <c r="E150" t="n">
-        <v>0.8985848251722703</v>
+        <v>0.005901205906274882</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.6981923705829974</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Tioguanine_1C08</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>0.9653168201675238</v>
+          <t>Spectinomycin_2F09</t>
+        </is>
+      </c>
+      <c r="B151" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>0.01219322853180701</v>
+        <v>0.4793736799483984</v>
       </c>
       <c r="D151" t="n">
-        <v>0.1297141259088941</v>
+        <v>0.5283308247368013</v>
       </c>
       <c r="E151" t="n">
-        <v>0.1446790757206655</v>
+        <v>0.833960822384567</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.6967970185092274</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>Tizoxanide_1D07</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>0.04159570507835152</v>
+          <t>Tacrolimus_2B07</t>
+        </is>
+      </c>
+      <c r="B152" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>0.4360641754459801</v>
+        <v>0.7698716003809861</v>
       </c>
       <c r="D152" t="n">
-        <v>0.5056870156829876</v>
+        <v>0.4369524494498999</v>
       </c>
       <c r="E152" t="n">
-        <v>0.8762132735307269</v>
+        <v>0.1784122787558455</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.5528895175415411</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="inlineStr">
-        <is>
-          <t>Tomivosertib_1C09</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>0.9538695788113046</v>
+      <c r="A153" s="1" t="n"/>
+      <c r="B153" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C153" t="n">
-        <v>0.007441008771008368</v>
+        <v>0.889053299699931</v>
       </c>
       <c r="D153" t="n">
-        <v>0.05237227024583998</v>
+        <v>0.1622900851922289</v>
       </c>
       <c r="E153" t="n">
-        <v>0.09755173387356976</v>
+        <v>0.9702439856371398</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.5922071884329052</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Toremifene_2A04</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>0.8777965266594532</v>
+          <t>Tenofovir_2B11</t>
+        </is>
+      </c>
+      <c r="B154" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>0.6100933959326744</v>
+        <v>0.1407781939278167</v>
       </c>
       <c r="D154" t="n">
-        <v>0.2381412727354307</v>
+        <v>0.8809755925114653</v>
       </c>
       <c r="E154" t="n">
-        <v>0.928439054701001</v>
+        <v>0.1923556469255756</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.976103748482265</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>Triparanol_1E07</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>0.181018981018981</v>
+          <t>Terconazole_1G07</t>
+        </is>
+      </c>
+      <c r="B155" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C155" t="n">
-        <v>0.6744503828211919</v>
+        <v>0.8668264645560116</v>
       </c>
       <c r="D155" t="n">
-        <v>0.3276723276723276</v>
+        <v>0.06509577987801647</v>
       </c>
       <c r="E155" t="n">
-        <v>0.7756243756243756</v>
+        <v>0.6433731865860117</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.1694025333157196</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="inlineStr">
-        <is>
-          <t>Umifenovir_2E02</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>0.7470898205252594</v>
+      <c r="A156" s="1" t="n"/>
+      <c r="B156" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>0.5583865382008069</v>
+        <v>0.04664740660540095</v>
       </c>
       <c r="D156" t="n">
-        <v>0.4813209172991986</v>
+        <v>0.01082251180458179</v>
       </c>
       <c r="E156" t="n">
-        <v>0.2881280780154699</v>
+        <v>0.5201989022032608</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.01001943056455401</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Valdecoxib_2G10</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>0.782695897504828</v>
+          <t>Tetracycline_2A03</t>
+        </is>
+      </c>
+      <c r="B157" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C157" t="n">
+        <v>0.9264931665401432</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.7874627279661603</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.568560827007455</v>
+      </c>
+      <c r="F157" t="n">
         <v>0.6967970185092274</v>
-      </c>
-      <c r="D157" t="n">
-        <v>1</v>
-      </c>
-      <c r="E157" t="n">
-        <v>0.741723331035486</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Valproic Acid_1D08</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>0.6191561393086735</v>
+          <t>Tetrandrine_1H03</t>
+        </is>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>0.4195635428594955</v>
+        <v>0.9766048784928948</v>
       </c>
       <c r="D158" t="n">
-        <v>0.6003076862568608</v>
+        <v>0.08581189469061323</v>
       </c>
       <c r="E158" t="n">
-        <v>0.1159797091578824</v>
+        <v>0.4397956683540207</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.09749115872685668</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Valsartan_1F02</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>0.7660487342179748</v>
+          <t>Thiethylperazine_2B06</t>
+        </is>
+      </c>
+      <c r="B159" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>0.1626098217402565</v>
+        <v>0.06560337313386197</v>
       </c>
       <c r="D159" t="n">
-        <v>0.179533574316183</v>
+        <v>0.1923556469255756</v>
       </c>
       <c r="E159" t="n">
-        <v>0.2828183732531558</v>
+        <v>0.8809755925114653</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.2907470178973746</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Veliparib_2G02</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>0.9266533835621633</v>
+          <t>Tigecycline_1C11</t>
+        </is>
+      </c>
+      <c r="B160" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>0.6100933959326744</v>
+        <v>0.6313792835782409</v>
       </c>
       <c r="D160" t="n">
-        <v>0.0756890431763302</v>
+        <v>0.2632590389305653</v>
       </c>
       <c r="E160" t="n">
-        <v>0.3826038008296723</v>
+        <v>0.0428645679326449</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.8985848251722703</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Verapamil_1B08</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>0.6291359424413356</v>
+          <t>Tioguanine_1C08</t>
+        </is>
+      </c>
+      <c r="B161" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C161" t="n">
-        <v>0.5509849875850934</v>
+        <v>0.9653168201675238</v>
       </c>
       <c r="D161" t="n">
-        <v>0.2104977000553373</v>
+        <v>0.01219322853180701</v>
       </c>
       <c r="E161" t="n">
-        <v>0.6763863260009093</v>
+        <v>0.1297141259088941</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.1446790757206655</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>Vidofludimus_1D11</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
-        <v>0.3003438538299911</v>
+          <t>Tizoxanide_1D07</t>
+        </is>
+      </c>
+      <c r="B162" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>0.4701638333603525</v>
+        <v>0.04159570507835152</v>
       </c>
       <c r="D162" t="n">
-        <v>0.9887015107409153</v>
+        <v>0.4360641754459801</v>
       </c>
       <c r="E162" t="n">
-        <v>0.7878838478067034</v>
+        <v>0.5056870156829876</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.8762132735307269</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
+          <t>Tomivosertib_1C09</t>
+        </is>
+      </c>
+      <c r="B163" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.9538695788113046</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.007441008771008368</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.05237227024583998</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.09755173387356976</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>Toremifene_2A04</t>
+        </is>
+      </c>
+      <c r="B164" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.8777965266594532</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.6100933959326744</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.2381412727354307</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.928439054701001</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>Triparanol_1E07</t>
+        </is>
+      </c>
+      <c r="B165" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.181018981018981</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.6744503828211919</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.3276723276723276</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.7756243756243756</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>Umifenovir_2E02</t>
+        </is>
+      </c>
+      <c r="B166" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.7470898205252594</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.5583865382008069</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.4813209172991986</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.2881280780154699</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <t>Valdecoxib_2G10</t>
+        </is>
+      </c>
+      <c r="B167" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.782695897504828</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.6967970185092274</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.741723331035486</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>Valproic Acid_1D08</t>
+        </is>
+      </c>
+      <c r="B168" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.6191561393086735</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.4195635428594955</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.6003076862568608</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.1159797091578824</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <t>Valsartan_1F02</t>
+        </is>
+      </c>
+      <c r="B169" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.7660487342179748</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.1626098217402565</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.179533574316183</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.2828183732531558</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="inlineStr">
+        <is>
+          <t>Veliparib_2G02</t>
+        </is>
+      </c>
+      <c r="B170" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.9266533835621633</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.6100933959326744</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.0756890431763302</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.3826038008296723</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="inlineStr">
+        <is>
+          <t>Verapamil_1B08</t>
+        </is>
+      </c>
+      <c r="B171" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.6291359424413356</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.5509849875850934</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.2104977000553373</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.6763863260009093</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="inlineStr">
+        <is>
+          <t>Vidofludimus_1D11</t>
+        </is>
+      </c>
+      <c r="B172" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.3003438538299911</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.4701638333603525</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.9887015107409153</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.7878838478067034</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="inlineStr">
+        <is>
           <t>ZINC4326719_2E07</t>
         </is>
       </c>
-      <c r="B163" t="n">
+      <c r="B173" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C173" t="n">
         <v>0.4430012268204861</v>
       </c>
-      <c r="C163" t="n">
+      <c r="D173" t="n">
         <v>0.4523006345593503</v>
       </c>
-      <c r="D163" t="n">
+      <c r="E173" t="n">
         <v>0.3826038008296723</v>
       </c>
-      <c r="E163" t="n">
+      <c r="F173" t="n">
         <v>0.319629190002053</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="A155:A156"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>